--- a/Atravesar Project plan 03-28-2016.xlsx
+++ b/Atravesar Project plan 03-28-2016.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AtravesarProject\Atravesar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Atravesar\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>Start Date</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>Days remaining</t>
-  </si>
-  <si>
-    <t>Active</t>
   </si>
   <si>
     <t>Issue #</t>
@@ -140,7 +137,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -148,7 +145,7 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -156,7 +153,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -164,7 +161,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -172,21 +169,21 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="22"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="26"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1016,30 +1013,30 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="83.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="83.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" customWidth="1"/>
-    <col min="6" max="7" width="10.88671875" style="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="59.109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.109375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.88671875" style="1"/>
+    <col min="6" max="7" width="10.875" style="1"/>
+    <col min="8" max="8" width="15.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="59.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="8.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="27"/>
       <c r="C2" s="8"/>
     </row>
-    <row r="3" spans="1:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="9"/>
       <c r="D3" s="2"/>
@@ -1050,7 +1047,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:11" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="6" t="s">
         <v>7</v>
@@ -1080,13 +1077,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D5" s="15">
         <v>0.2</v>
@@ -1102,13 +1099,13 @@
     <row r="6" spans="1:11" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
       <c r="B6" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="16"/>
@@ -1118,13 +1115,13 @@
       <c r="J6" s="11"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D7" s="15">
         <v>0.4</v>
@@ -1140,7 +1137,7 @@
     <row r="8" spans="1:11" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="15">
@@ -1157,9 +1154,11 @@
     <row r="9" spans="1:11" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="26"/>
+        <v>18</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>31</v>
+      </c>
       <c r="D9" s="15">
         <v>0.4</v>
       </c>
@@ -1174,10 +1173,10 @@
     <row r="10" spans="1:11" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="15">
         <v>0.1</v>
@@ -1193,9 +1192,11 @@
     <row r="11" spans="1:11" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="26"/>
+        <v>21</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>31</v>
+      </c>
       <c r="D11" s="15">
         <v>0.1</v>
       </c>
@@ -1207,10 +1208,10 @@
       <c r="J11" s="11"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
       <c r="B12" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="26"/>
       <c r="D12" s="15">
@@ -1224,10 +1225,10 @@
       <c r="J12" s="11"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
       <c r="B13" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="26"/>
       <c r="D13" s="15">
@@ -1244,7 +1245,7 @@
     <row r="14" spans="1:11" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
       <c r="B14" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="26"/>
       <c r="D14" s="15">
@@ -1258,10 +1259,10 @@
       <c r="J14" s="11"/>
       <c r="K14" s="13"/>
     </row>
-    <row r="15" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
       <c r="B15" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="26"/>
       <c r="D15" s="15">
@@ -1278,10 +1279,10 @@
     <row r="16" spans="1:11" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
       <c r="B16" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="15">
         <v>1</v>
@@ -1294,13 +1295,13 @@
       <c r="J16" s="11"/>
       <c r="K16" s="13"/>
     </row>
-    <row r="17" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
       <c r="B17" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="15">
         <v>0.2</v>
@@ -1313,10 +1314,10 @@
       <c r="J17" s="11"/>
       <c r="K17" s="13"/>
     </row>
-    <row r="18" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
       <c r="B18" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="26"/>
       <c r="D18" s="15">
@@ -1333,7 +1334,7 @@
     <row r="19" spans="1:11" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
       <c r="B19" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="26"/>
       <c r="D19" s="15">
@@ -1368,39 +1369,39 @@
       <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="4.5" style="18" customWidth="1"/>
     <col min="2" max="2" width="11" style="18" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" style="18" customWidth="1"/>
-    <col min="4" max="4" width="38.6640625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" style="18" customWidth="1"/>
-    <col min="6" max="6" width="59.44140625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="23.125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="38.625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="18.875" style="18" customWidth="1"/>
+    <col min="6" max="6" width="59.5" style="18" customWidth="1"/>
     <col min="7" max="7" width="15" style="18" customWidth="1"/>
-    <col min="8" max="16384" width="10.88671875" style="18"/>
+    <col min="8" max="16384" width="10.875" style="18"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="D2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="E2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="F2" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
@@ -1410,7 +1411,7 @@
       <c r="G3" s="23"/>
       <c r="H3" s="20"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
@@ -1420,7 +1421,7 @@
       <c r="G4" s="23"/>
       <c r="H4" s="20"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
@@ -1430,7 +1431,7 @@
       <c r="G5" s="23"/>
       <c r="H5" s="20"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
@@ -1440,7 +1441,7 @@
       <c r="G6" s="23"/>
       <c r="H6" s="20"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
@@ -1450,7 +1451,7 @@
       <c r="G7" s="23"/>
       <c r="H7" s="20"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -1460,7 +1461,7 @@
       <c r="G8" s="23"/>
       <c r="H8" s="20"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
@@ -1470,7 +1471,7 @@
       <c r="G9" s="23"/>
       <c r="H9" s="20"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
@@ -1480,7 +1481,7 @@
       <c r="G10" s="23"/>
       <c r="H10" s="20"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
@@ -1490,7 +1491,7 @@
       <c r="G11" s="23"/>
       <c r="H11" s="20"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
@@ -1500,7 +1501,7 @@
       <c r="G12" s="23"/>
       <c r="H12" s="20"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
@@ -1510,7 +1511,7 @@
       <c r="G13" s="23"/>
       <c r="H13" s="20"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
@@ -1520,7 +1521,7 @@
       <c r="G14" s="23"/>
       <c r="H14" s="20"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
@@ -1530,7 +1531,7 @@
       <c r="G15" s="23"/>
       <c r="H15" s="20"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
@@ -1540,7 +1541,7 @@
       <c r="G16" s="23"/>
       <c r="H16" s="20"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
@@ -1550,7 +1551,7 @@
       <c r="G17" s="23"/>
       <c r="H17" s="20"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
@@ -1560,7 +1561,7 @@
       <c r="G18" s="23"/>
       <c r="H18" s="20"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
@@ -1570,7 +1571,7 @@
       <c r="G19" s="23"/>
       <c r="H19" s="20"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
@@ -1580,7 +1581,7 @@
       <c r="G20" s="23"/>
       <c r="H20" s="20"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
@@ -1590,7 +1591,7 @@
       <c r="G21" s="23"/>
       <c r="H21" s="20"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -1600,7 +1601,7 @@
       <c r="G22" s="23"/>
       <c r="H22" s="20"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
@@ -1610,7 +1611,7 @@
       <c r="G23" s="23"/>
       <c r="H23" s="20"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
@@ -1620,7 +1621,7 @@
       <c r="G24" s="23"/>
       <c r="H24" s="20"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
       <c r="B25" s="23"/>
       <c r="C25" s="23"/>
@@ -1630,7 +1631,7 @@
       <c r="G25" s="23"/>
       <c r="H25" s="20"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
       <c r="B26" s="23"/>
       <c r="C26" s="23"/>
@@ -1640,7 +1641,7 @@
       <c r="G26" s="23"/>
       <c r="H26" s="20"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
@@ -1650,7 +1651,7 @@
       <c r="G27" s="23"/>
       <c r="H27" s="20"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="19"/>
       <c r="B28" s="23"/>
       <c r="C28" s="23"/>
@@ -1660,7 +1661,7 @@
       <c r="G28" s="23"/>
       <c r="H28" s="20"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="19"/>
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
@@ -1670,7 +1671,7 @@
       <c r="G29" s="23"/>
       <c r="H29" s="20"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="19"/>
       <c r="B30" s="23"/>
       <c r="C30" s="23"/>
@@ -1680,7 +1681,7 @@
       <c r="G30" s="23"/>
       <c r="H30" s="20"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="19"/>
       <c r="B31" s="23"/>
       <c r="C31" s="23"/>
@@ -1690,7 +1691,7 @@
       <c r="G31" s="23"/>
       <c r="H31" s="20"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="19"/>
       <c r="B32" s="23"/>
       <c r="C32" s="23"/>
@@ -1700,7 +1701,7 @@
       <c r="G32" s="23"/>
       <c r="H32" s="20"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="19"/>
       <c r="B33" s="23"/>
       <c r="C33" s="23"/>
@@ -1710,7 +1711,7 @@
       <c r="G33" s="23"/>
       <c r="H33" s="20"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="19"/>
       <c r="B34" s="23"/>
       <c r="C34" s="23"/>
@@ -1720,7 +1721,7 @@
       <c r="G34" s="23"/>
       <c r="H34" s="20"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="19"/>
       <c r="B35" s="23"/>
       <c r="C35" s="23"/>
@@ -1730,7 +1731,7 @@
       <c r="G35" s="23"/>
       <c r="H35" s="20"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="19"/>
       <c r="B36" s="23"/>
       <c r="C36" s="23"/>
@@ -1740,7 +1741,7 @@
       <c r="G36" s="23"/>
       <c r="H36" s="20"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="19"/>
       <c r="B37" s="23"/>
       <c r="C37" s="23"/>
@@ -1750,7 +1751,7 @@
       <c r="G37" s="23"/>
       <c r="H37" s="20"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="19"/>
       <c r="B38" s="23"/>
       <c r="C38" s="23"/>
@@ -1760,7 +1761,7 @@
       <c r="G38" s="23"/>
       <c r="H38" s="20"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="19"/>
       <c r="B39" s="23"/>
       <c r="C39" s="23"/>
@@ -1770,7 +1771,7 @@
       <c r="G39" s="23"/>
       <c r="H39" s="20"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="19"/>
       <c r="B40" s="23"/>
       <c r="C40" s="23"/>
@@ -1780,7 +1781,7 @@
       <c r="G40" s="23"/>
       <c r="H40" s="20"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="19"/>
       <c r="B41" s="23"/>
       <c r="C41" s="23"/>
@@ -1790,7 +1791,7 @@
       <c r="G41" s="23"/>
       <c r="H41" s="20"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="19"/>
       <c r="B42" s="23"/>
       <c r="C42" s="23"/>
@@ -1800,7 +1801,7 @@
       <c r="G42" s="23"/>
       <c r="H42" s="20"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="19"/>
       <c r="B43" s="23"/>
       <c r="C43" s="23"/>
@@ -1810,7 +1811,7 @@
       <c r="G43" s="23"/>
       <c r="H43" s="20"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="19"/>
       <c r="B44" s="23"/>
       <c r="C44" s="23"/>
@@ -1820,7 +1821,7 @@
       <c r="G44" s="23"/>
       <c r="H44" s="20"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="19"/>
       <c r="B45" s="23"/>
       <c r="C45" s="23"/>
@@ -1830,7 +1831,7 @@
       <c r="G45" s="23"/>
       <c r="H45" s="20"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="19"/>
       <c r="B46" s="23"/>
       <c r="C46" s="23"/>
@@ -1840,7 +1841,7 @@
       <c r="G46" s="23"/>
       <c r="H46" s="20"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="19"/>
       <c r="B47" s="23"/>
       <c r="C47" s="23"/>
@@ -1850,7 +1851,7 @@
       <c r="G47" s="23"/>
       <c r="H47" s="20"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="19"/>
       <c r="B48" s="23"/>
       <c r="C48" s="23"/>
@@ -1860,7 +1861,7 @@
       <c r="G48" s="23"/>
       <c r="H48" s="20"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="19"/>
       <c r="B49" s="23"/>
       <c r="C49" s="23"/>
@@ -1870,7 +1871,7 @@
       <c r="G49" s="23"/>
       <c r="H49" s="20"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="19"/>
       <c r="B50" s="23"/>
       <c r="C50" s="23"/>
@@ -1880,7 +1881,7 @@
       <c r="G50" s="23"/>
       <c r="H50" s="20"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="19"/>
       <c r="B51" s="23"/>
       <c r="C51" s="23"/>
@@ -1890,7 +1891,7 @@
       <c r="G51" s="23"/>
       <c r="H51" s="20"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="19"/>
       <c r="B52" s="23"/>
       <c r="C52" s="23"/>
@@ -1900,7 +1901,7 @@
       <c r="G52" s="23"/>
       <c r="H52" s="20"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="19"/>
       <c r="B53" s="23"/>
       <c r="C53" s="23"/>
@@ -1910,7 +1911,7 @@
       <c r="G53" s="23"/>
       <c r="H53" s="20"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="19"/>
       <c r="B54" s="23"/>
       <c r="C54" s="23"/>
@@ -1920,7 +1921,7 @@
       <c r="G54" s="23"/>
       <c r="H54" s="20"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="19"/>
       <c r="B55" s="23"/>
       <c r="C55" s="23"/>
@@ -1930,7 +1931,7 @@
       <c r="G55" s="23"/>
       <c r="H55" s="20"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="19"/>
       <c r="B56" s="23"/>
       <c r="C56" s="23"/>
@@ -1940,7 +1941,7 @@
       <c r="G56" s="23"/>
       <c r="H56" s="20"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="19"/>
       <c r="B57" s="23"/>
       <c r="C57" s="23"/>
@@ -1950,7 +1951,7 @@
       <c r="G57" s="23"/>
       <c r="H57" s="20"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="19"/>
       <c r="B58" s="23"/>
       <c r="C58" s="23"/>
@@ -1960,7 +1961,7 @@
       <c r="G58" s="23"/>
       <c r="H58" s="20"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="19"/>
       <c r="B59" s="23"/>
       <c r="C59" s="23"/>
@@ -1970,7 +1971,7 @@
       <c r="G59" s="23"/>
       <c r="H59" s="20"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="19"/>
       <c r="B60" s="23"/>
       <c r="C60" s="23"/>
@@ -1980,7 +1981,7 @@
       <c r="G60" s="23"/>
       <c r="H60" s="20"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="19"/>
       <c r="B61" s="23"/>
       <c r="C61" s="23"/>
@@ -1990,7 +1991,7 @@
       <c r="G61" s="23"/>
       <c r="H61" s="20"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="19"/>
       <c r="B62" s="23"/>
       <c r="C62" s="23"/>
@@ -2000,7 +2001,7 @@
       <c r="G62" s="23"/>
       <c r="H62" s="20"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="19"/>
       <c r="B63" s="23"/>
       <c r="C63" s="23"/>
@@ -2010,7 +2011,7 @@
       <c r="G63" s="23"/>
       <c r="H63" s="20"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="19"/>
       <c r="B64" s="23"/>
       <c r="C64" s="23"/>
@@ -2020,7 +2021,7 @@
       <c r="G64" s="23"/>
       <c r="H64" s="20"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="19"/>
       <c r="B65" s="23"/>
       <c r="C65" s="23"/>
@@ -2030,7 +2031,7 @@
       <c r="G65" s="23"/>
       <c r="H65" s="20"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="19"/>
       <c r="B66" s="23"/>
       <c r="C66" s="23"/>
@@ -2040,7 +2041,7 @@
       <c r="G66" s="23"/>
       <c r="H66" s="20"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="19"/>
       <c r="B67" s="23"/>
       <c r="C67" s="23"/>
@@ -2050,7 +2051,7 @@
       <c r="G67" s="23"/>
       <c r="H67" s="20"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="19"/>
       <c r="B68" s="23"/>
       <c r="C68" s="23"/>
@@ -2060,7 +2061,7 @@
       <c r="G68" s="23"/>
       <c r="H68" s="20"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="19"/>
       <c r="B69" s="23"/>
       <c r="C69" s="23"/>
@@ -2070,7 +2071,7 @@
       <c r="G69" s="23"/>
       <c r="H69" s="20"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="19"/>
       <c r="B70" s="23"/>
       <c r="C70" s="23"/>
@@ -2080,7 +2081,7 @@
       <c r="G70" s="23"/>
       <c r="H70" s="20"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="19"/>
       <c r="B71" s="23"/>
       <c r="C71" s="23"/>
@@ -2090,7 +2091,7 @@
       <c r="G71" s="23"/>
       <c r="H71" s="20"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="19"/>
       <c r="B72" s="23"/>
       <c r="C72" s="23"/>
@@ -2100,7 +2101,7 @@
       <c r="G72" s="23"/>
       <c r="H72" s="20"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="19"/>
       <c r="B73" s="23"/>
       <c r="C73" s="23"/>
@@ -2110,7 +2111,7 @@
       <c r="G73" s="23"/>
       <c r="H73" s="20"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="19"/>
       <c r="B74" s="23"/>
       <c r="C74" s="23"/>
@@ -2120,7 +2121,7 @@
       <c r="G74" s="23"/>
       <c r="H74" s="20"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="19"/>
       <c r="B75" s="23"/>
       <c r="C75" s="23"/>
@@ -2130,7 +2131,7 @@
       <c r="G75" s="23"/>
       <c r="H75" s="20"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="19"/>
       <c r="B76" s="23"/>
       <c r="C76" s="23"/>
@@ -2140,7 +2141,7 @@
       <c r="G76" s="23"/>
       <c r="H76" s="20"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="19"/>
       <c r="B77" s="23"/>
       <c r="C77" s="23"/>
@@ -2150,7 +2151,7 @@
       <c r="G77" s="23"/>
       <c r="H77" s="20"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="19"/>
       <c r="B78" s="23"/>
       <c r="C78" s="23"/>
@@ -2160,7 +2161,7 @@
       <c r="G78" s="23"/>
       <c r="H78" s="20"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="19"/>
       <c r="B79" s="23"/>
       <c r="C79" s="23"/>
@@ -2170,7 +2171,7 @@
       <c r="G79" s="23"/>
       <c r="H79" s="20"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="19"/>
       <c r="B80" s="23"/>
       <c r="C80" s="23"/>
@@ -2180,7 +2181,7 @@
       <c r="G80" s="23"/>
       <c r="H80" s="20"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="19"/>
       <c r="B81" s="23"/>
       <c r="C81" s="23"/>
@@ -2190,7 +2191,7 @@
       <c r="G81" s="23"/>
       <c r="H81" s="20"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="19"/>
       <c r="B82" s="23"/>
       <c r="C82" s="23"/>
@@ -2200,7 +2201,7 @@
       <c r="G82" s="23"/>
       <c r="H82" s="20"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="19"/>
       <c r="B83" s="23"/>
       <c r="C83" s="23"/>
@@ -2210,7 +2211,7 @@
       <c r="G83" s="23"/>
       <c r="H83" s="20"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="19"/>
       <c r="B84" s="23"/>
       <c r="C84" s="23"/>
@@ -2220,7 +2221,7 @@
       <c r="G84" s="23"/>
       <c r="H84" s="20"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="19"/>
       <c r="B85" s="23"/>
       <c r="C85" s="23"/>
@@ -2230,7 +2231,7 @@
       <c r="G85" s="23"/>
       <c r="H85" s="20"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="19"/>
       <c r="B86" s="23"/>
       <c r="C86" s="23"/>
@@ -2240,7 +2241,7 @@
       <c r="G86" s="23"/>
       <c r="H86" s="20"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="19"/>
       <c r="B87" s="23"/>
       <c r="C87" s="23"/>
@@ -2250,7 +2251,7 @@
       <c r="G87" s="23"/>
       <c r="H87" s="20"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="19"/>
       <c r="B88" s="23"/>
       <c r="C88" s="23"/>
@@ -2260,7 +2261,7 @@
       <c r="G88" s="23"/>
       <c r="H88" s="20"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="19"/>
       <c r="B89" s="23"/>
       <c r="C89" s="23"/>
@@ -2270,7 +2271,7 @@
       <c r="G89" s="23"/>
       <c r="H89" s="20"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="19"/>
       <c r="B90" s="23"/>
       <c r="C90" s="23"/>
@@ -2280,7 +2281,7 @@
       <c r="G90" s="23"/>
       <c r="H90" s="20"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="19"/>
       <c r="B91" s="23"/>
       <c r="C91" s="23"/>
@@ -2290,7 +2291,7 @@
       <c r="G91" s="23"/>
       <c r="H91" s="20"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="19"/>
       <c r="B92" s="23"/>
       <c r="C92" s="23"/>
@@ -2300,7 +2301,7 @@
       <c r="G92" s="23"/>
       <c r="H92" s="20"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="19"/>
       <c r="B93" s="23"/>
       <c r="C93" s="23"/>
@@ -2310,7 +2311,7 @@
       <c r="G93" s="23"/>
       <c r="H93" s="20"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="19"/>
       <c r="B94" s="23"/>
       <c r="C94" s="23"/>
@@ -2320,7 +2321,7 @@
       <c r="G94" s="23"/>
       <c r="H94" s="20"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="19"/>
       <c r="B95" s="23"/>
       <c r="C95" s="23"/>
@@ -2330,7 +2331,7 @@
       <c r="G95" s="23"/>
       <c r="H95" s="20"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="19"/>
       <c r="B96" s="23"/>
       <c r="C96" s="23"/>
@@ -2340,7 +2341,7 @@
       <c r="G96" s="23"/>
       <c r="H96" s="20"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="19"/>
       <c r="B97" s="23"/>
       <c r="C97" s="23"/>
@@ -2350,7 +2351,7 @@
       <c r="G97" s="23"/>
       <c r="H97" s="20"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="19"/>
       <c r="B98" s="23"/>
       <c r="C98" s="23"/>
@@ -2360,7 +2361,7 @@
       <c r="G98" s="23"/>
       <c r="H98" s="20"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="19"/>
       <c r="B99" s="23"/>
       <c r="C99" s="23"/>
@@ -2370,7 +2371,7 @@
       <c r="G99" s="23"/>
       <c r="H99" s="20"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="19"/>
       <c r="B100" s="23"/>
       <c r="C100" s="23"/>
@@ -2380,7 +2381,7 @@
       <c r="G100" s="23"/>
       <c r="H100" s="20"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="19"/>
       <c r="B101" s="23"/>
       <c r="C101" s="23"/>
@@ -2390,7 +2391,7 @@
       <c r="G101" s="23"/>
       <c r="H101" s="20"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="19"/>
       <c r="B102" s="23"/>
       <c r="C102" s="23"/>
@@ -2400,7 +2401,7 @@
       <c r="G102" s="23"/>
       <c r="H102" s="20"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="19"/>
       <c r="B103" s="23"/>
       <c r="C103" s="23"/>
@@ -2410,7 +2411,7 @@
       <c r="G103" s="23"/>
       <c r="H103" s="20"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="19"/>
       <c r="B104" s="23"/>
       <c r="C104" s="23"/>
@@ -2420,7 +2421,7 @@
       <c r="G104" s="23"/>
       <c r="H104" s="20"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="19"/>
       <c r="B105" s="23"/>
       <c r="C105" s="23"/>
@@ -2430,7 +2431,7 @@
       <c r="G105" s="23"/>
       <c r="H105" s="20"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="19"/>
       <c r="B106" s="23"/>
       <c r="C106" s="23"/>
@@ -2440,7 +2441,7 @@
       <c r="G106" s="23"/>
       <c r="H106" s="20"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="19"/>
       <c r="B107" s="23"/>
       <c r="C107" s="23"/>
@@ -2450,7 +2451,7 @@
       <c r="G107" s="23"/>
       <c r="H107" s="20"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="19"/>
       <c r="B108" s="23"/>
       <c r="C108" s="23"/>
@@ -2460,7 +2461,7 @@
       <c r="G108" s="23"/>
       <c r="H108" s="20"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="19"/>
       <c r="B109" s="23"/>
       <c r="C109" s="23"/>
@@ -2470,7 +2471,7 @@
       <c r="G109" s="23"/>
       <c r="H109" s="20"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="19"/>
       <c r="B110" s="23"/>
       <c r="C110" s="23"/>
@@ -2480,7 +2481,7 @@
       <c r="G110" s="23"/>
       <c r="H110" s="20"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="19"/>
       <c r="B111" s="23"/>
       <c r="C111" s="23"/>
@@ -2490,7 +2491,7 @@
       <c r="G111" s="23"/>
       <c r="H111" s="20"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="19"/>
       <c r="B112" s="23"/>
       <c r="C112" s="23"/>
@@ -2500,7 +2501,7 @@
       <c r="G112" s="23"/>
       <c r="H112" s="20"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="19"/>
       <c r="B113" s="23"/>
       <c r="C113" s="23"/>
@@ -2510,7 +2511,7 @@
       <c r="G113" s="23"/>
       <c r="H113" s="20"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="19"/>
       <c r="B114" s="23"/>
       <c r="C114" s="23"/>
@@ -2520,7 +2521,7 @@
       <c r="G114" s="23"/>
       <c r="H114" s="20"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="19"/>
       <c r="B115" s="23"/>
       <c r="C115" s="23"/>
@@ -2530,7 +2531,7 @@
       <c r="G115" s="23"/>
       <c r="H115" s="20"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="19"/>
       <c r="B116" s="23"/>
       <c r="C116" s="23"/>
@@ -2540,7 +2541,7 @@
       <c r="G116" s="23"/>
       <c r="H116" s="20"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="19"/>
       <c r="B117" s="23"/>
       <c r="C117" s="23"/>
@@ -2550,7 +2551,7 @@
       <c r="G117" s="23"/>
       <c r="H117" s="20"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="19"/>
       <c r="B118" s="23"/>
       <c r="C118" s="23"/>
@@ -2560,7 +2561,7 @@
       <c r="G118" s="23"/>
       <c r="H118" s="20"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="19"/>
       <c r="B119" s="23"/>
       <c r="C119" s="23"/>
@@ -2570,7 +2571,7 @@
       <c r="G119" s="23"/>
       <c r="H119" s="20"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="19"/>
       <c r="B120" s="23"/>
       <c r="C120" s="23"/>
@@ -2580,7 +2581,7 @@
       <c r="G120" s="23"/>
       <c r="H120" s="20"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="19"/>
       <c r="B121" s="23"/>
       <c r="C121" s="23"/>
@@ -2590,7 +2591,7 @@
       <c r="G121" s="23"/>
       <c r="H121" s="20"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="19"/>
       <c r="B122" s="23"/>
       <c r="C122" s="23"/>
@@ -2600,7 +2601,7 @@
       <c r="G122" s="23"/>
       <c r="H122" s="20"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="19"/>
       <c r="B123" s="23"/>
       <c r="C123" s="23"/>
@@ -2610,7 +2611,7 @@
       <c r="G123" s="23"/>
       <c r="H123" s="20"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="19"/>
       <c r="B124" s="23"/>
       <c r="C124" s="23"/>
@@ -2620,7 +2621,7 @@
       <c r="G124" s="23"/>
       <c r="H124" s="20"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="19"/>
       <c r="B125" s="23"/>
       <c r="C125" s="23"/>
@@ -2630,7 +2631,7 @@
       <c r="G125" s="23"/>
       <c r="H125" s="20"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="19"/>
       <c r="B126" s="23"/>
       <c r="C126" s="23"/>
@@ -2640,7 +2641,7 @@
       <c r="G126" s="23"/>
       <c r="H126" s="20"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="19"/>
       <c r="B127" s="23"/>
       <c r="C127" s="23"/>
@@ -2650,7 +2651,7 @@
       <c r="G127" s="23"/>
       <c r="H127" s="20"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="19"/>
       <c r="B128" s="23"/>
       <c r="C128" s="23"/>
@@ -2660,7 +2661,7 @@
       <c r="G128" s="23"/>
       <c r="H128" s="20"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="19"/>
       <c r="B129" s="23"/>
       <c r="C129" s="23"/>
@@ -2670,7 +2671,7 @@
       <c r="G129" s="23"/>
       <c r="H129" s="20"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="19"/>
       <c r="B130" s="23"/>
       <c r="C130" s="23"/>
@@ -2680,7 +2681,7 @@
       <c r="G130" s="23"/>
       <c r="H130" s="20"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="19"/>
       <c r="B131" s="23"/>
       <c r="C131" s="23"/>
@@ -2690,7 +2691,7 @@
       <c r="G131" s="23"/>
       <c r="H131" s="20"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="19"/>
       <c r="B132" s="23"/>
       <c r="C132" s="23"/>
@@ -2700,7 +2701,7 @@
       <c r="G132" s="23"/>
       <c r="H132" s="20"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="19"/>
       <c r="B133" s="23"/>
       <c r="C133" s="23"/>
@@ -2710,7 +2711,7 @@
       <c r="G133" s="23"/>
       <c r="H133" s="20"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="19"/>
       <c r="B134" s="23"/>
       <c r="C134" s="23"/>
@@ -2720,7 +2721,7 @@
       <c r="G134" s="23"/>
       <c r="H134" s="20"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="19"/>
       <c r="B135" s="23"/>
       <c r="C135" s="23"/>
@@ -2730,7 +2731,7 @@
       <c r="G135" s="23"/>
       <c r="H135" s="20"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="19"/>
       <c r="B136" s="23"/>
       <c r="C136" s="23"/>
@@ -2740,7 +2741,7 @@
       <c r="G136" s="23"/>
       <c r="H136" s="20"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="19"/>
       <c r="B137" s="23"/>
       <c r="C137" s="23"/>
@@ -2750,7 +2751,7 @@
       <c r="G137" s="23"/>
       <c r="H137" s="20"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="19"/>
       <c r="B138" s="23"/>
       <c r="C138" s="23"/>
@@ -2760,7 +2761,7 @@
       <c r="G138" s="23"/>
       <c r="H138" s="20"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="19"/>
       <c r="B139" s="23"/>
       <c r="C139" s="23"/>
@@ -2770,7 +2771,7 @@
       <c r="G139" s="23"/>
       <c r="H139" s="20"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="19"/>
       <c r="B140" s="23"/>
       <c r="C140" s="23"/>
@@ -2780,7 +2781,7 @@
       <c r="G140" s="23"/>
       <c r="H140" s="20"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B141" s="22"/>
       <c r="C141" s="22"/>
       <c r="D141" s="22"/>

--- a/Atravesar Project plan 03-28-2016.xlsx
+++ b/Atravesar Project plan 03-28-2016.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Atravesar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AtravesarProject\Atravesar\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>Start Date</t>
   </si>
@@ -111,9 +111,6 @@
     <t>With any address/datetime changes the quotation needs to be recalled</t>
   </si>
   <si>
-    <t>On ‘confirm booking’ button click the app crashes</t>
-  </si>
-  <si>
     <t>This menu needs to be on top of the textboxes on the bottom of the page</t>
   </si>
   <si>
@@ -127,6 +124,9 @@
   </si>
   <si>
     <t>Completed</t>
+  </si>
+  <si>
+    <t>On ‘confirm booking’ button click the app crashes CTR+SHIFT+T</t>
   </si>
 </sst>
 </file>
@@ -137,7 +137,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -145,7 +145,7 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -153,7 +153,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -161,7 +161,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -169,21 +169,21 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="22"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="26"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1013,30 +1013,30 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="83.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="83.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" customWidth="1"/>
-    <col min="6" max="7" width="10.875" style="1"/>
-    <col min="8" max="8" width="15.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="59.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.875" style="1"/>
+    <col min="6" max="7" width="10.88671875" style="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="59.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.109375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="8.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="27"/>
       <c r="C2" s="8"/>
     </row>
-    <row r="3" spans="1:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
       <c r="C3" s="9"/>
       <c r="D3" s="2"/>
@@ -1047,7 +1047,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:11" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="6" t="s">
         <v>7</v>
@@ -1077,13 +1077,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="25" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="15">
         <v>0.2</v>
@@ -1102,10 +1102,10 @@
         <v>15</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="16"/>
@@ -1115,13 +1115,13 @@
       <c r="J6" s="11"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="15">
         <v>0.4</v>
@@ -1157,7 +1157,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="15">
         <v>0.4</v>
@@ -1176,7 +1176,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="15">
         <v>0.1</v>
@@ -1195,7 +1195,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="15">
         <v>0.1</v>
@@ -1208,12 +1208,14 @@
       <c r="J11" s="11"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
       <c r="B12" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="26"/>
+      <c r="C12" s="26" t="s">
+        <v>30</v>
+      </c>
       <c r="D12" s="15">
         <v>0.2</v>
       </c>
@@ -1225,12 +1227,14 @@
       <c r="J12" s="11"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
       <c r="B13" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="26"/>
+      <c r="C13" s="26" t="s">
+        <v>30</v>
+      </c>
       <c r="D13" s="15">
         <v>0.2</v>
       </c>
@@ -1259,12 +1263,14 @@
       <c r="J14" s="11"/>
       <c r="K14" s="13"/>
     </row>
-    <row r="15" spans="1:11" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
       <c r="B15" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="26"/>
+      <c r="C15" s="26" t="s">
+        <v>30</v>
+      </c>
       <c r="D15" s="15">
         <v>0.2</v>
       </c>
@@ -1279,10 +1285,10 @@
     <row r="16" spans="1:11" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
       <c r="B16" s="24" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="15">
         <v>1</v>
@@ -1295,13 +1301,13 @@
       <c r="J16" s="11"/>
       <c r="K16" s="13"/>
     </row>
-    <row r="17" spans="1:11" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
       <c r="B17" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="15">
         <v>0.2</v>
@@ -1314,10 +1320,10 @@
       <c r="J17" s="11"/>
       <c r="K17" s="13"/>
     </row>
-    <row r="18" spans="1:11" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
       <c r="B18" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="26"/>
       <c r="D18" s="15">
@@ -1334,7 +1340,7 @@
     <row r="19" spans="1:11" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
       <c r="B19" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="26"/>
       <c r="D19" s="15">
@@ -1369,19 +1375,19 @@
       <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="18" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" style="18" customWidth="1"/>
     <col min="2" max="2" width="11" style="18" customWidth="1"/>
-    <col min="3" max="3" width="23.125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="38.625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="18.875" style="18" customWidth="1"/>
-    <col min="6" max="6" width="59.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" style="18" customWidth="1"/>
+    <col min="4" max="4" width="38.6640625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" style="18" customWidth="1"/>
+    <col min="6" max="6" width="59.44140625" style="18" customWidth="1"/>
     <col min="7" max="7" width="15" style="18" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="18"/>
+    <col min="8" max="16384" width="10.88671875" style="18"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="21" t="s">
         <v>9</v>
       </c>
@@ -1401,7 +1407,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
@@ -1411,7 +1417,7 @@
       <c r="G3" s="23"/>
       <c r="H3" s="20"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="19"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
@@ -1421,7 +1427,7 @@
       <c r="G4" s="23"/>
       <c r="H4" s="20"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
@@ -1431,7 +1437,7 @@
       <c r="G5" s="23"/>
       <c r="H5" s="20"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
@@ -1441,7 +1447,7 @@
       <c r="G6" s="23"/>
       <c r="H6" s="20"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
@@ -1451,7 +1457,7 @@
       <c r="G7" s="23"/>
       <c r="H7" s="20"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -1461,7 +1467,7 @@
       <c r="G8" s="23"/>
       <c r="H8" s="20"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="19"/>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
@@ -1471,7 +1477,7 @@
       <c r="G9" s="23"/>
       <c r="H9" s="20"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="19"/>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
@@ -1481,7 +1487,7 @@
       <c r="G10" s="23"/>
       <c r="H10" s="20"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
@@ -1491,7 +1497,7 @@
       <c r="G11" s="23"/>
       <c r="H11" s="20"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
@@ -1501,7 +1507,7 @@
       <c r="G12" s="23"/>
       <c r="H12" s="20"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
@@ -1511,7 +1517,7 @@
       <c r="G13" s="23"/>
       <c r="H13" s="20"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
@@ -1521,7 +1527,7 @@
       <c r="G14" s="23"/>
       <c r="H14" s="20"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
@@ -1531,7 +1537,7 @@
       <c r="G15" s="23"/>
       <c r="H15" s="20"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
@@ -1541,7 +1547,7 @@
       <c r="G16" s="23"/>
       <c r="H16" s="20"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
@@ -1551,7 +1557,7 @@
       <c r="G17" s="23"/>
       <c r="H17" s="20"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
@@ -1561,7 +1567,7 @@
       <c r="G18" s="23"/>
       <c r="H18" s="20"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="19"/>
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
@@ -1571,7 +1577,7 @@
       <c r="G19" s="23"/>
       <c r="H19" s="20"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="19"/>
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
@@ -1581,7 +1587,7 @@
       <c r="G20" s="23"/>
       <c r="H20" s="20"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="19"/>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
@@ -1591,7 +1597,7 @@
       <c r="G21" s="23"/>
       <c r="H21" s="20"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="19"/>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -1601,7 +1607,7 @@
       <c r="G22" s="23"/>
       <c r="H22" s="20"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
@@ -1611,7 +1617,7 @@
       <c r="G23" s="23"/>
       <c r="H23" s="20"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="19"/>
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
@@ -1621,7 +1627,7 @@
       <c r="G24" s="23"/>
       <c r="H24" s="20"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="19"/>
       <c r="B25" s="23"/>
       <c r="C25" s="23"/>
@@ -1631,7 +1637,7 @@
       <c r="G25" s="23"/>
       <c r="H25" s="20"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="19"/>
       <c r="B26" s="23"/>
       <c r="C26" s="23"/>
@@ -1641,7 +1647,7 @@
       <c r="G26" s="23"/>
       <c r="H26" s="20"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="19"/>
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
@@ -1651,7 +1657,7 @@
       <c r="G27" s="23"/>
       <c r="H27" s="20"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="19"/>
       <c r="B28" s="23"/>
       <c r="C28" s="23"/>
@@ -1661,7 +1667,7 @@
       <c r="G28" s="23"/>
       <c r="H28" s="20"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="19"/>
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
@@ -1671,7 +1677,7 @@
       <c r="G29" s="23"/>
       <c r="H29" s="20"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="19"/>
       <c r="B30" s="23"/>
       <c r="C30" s="23"/>
@@ -1681,7 +1687,7 @@
       <c r="G30" s="23"/>
       <c r="H30" s="20"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="19"/>
       <c r="B31" s="23"/>
       <c r="C31" s="23"/>
@@ -1691,7 +1697,7 @@
       <c r="G31" s="23"/>
       <c r="H31" s="20"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="19"/>
       <c r="B32" s="23"/>
       <c r="C32" s="23"/>
@@ -1701,7 +1707,7 @@
       <c r="G32" s="23"/>
       <c r="H32" s="20"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="19"/>
       <c r="B33" s="23"/>
       <c r="C33" s="23"/>
@@ -1711,7 +1717,7 @@
       <c r="G33" s="23"/>
       <c r="H33" s="20"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="19"/>
       <c r="B34" s="23"/>
       <c r="C34" s="23"/>
@@ -1721,7 +1727,7 @@
       <c r="G34" s="23"/>
       <c r="H34" s="20"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="19"/>
       <c r="B35" s="23"/>
       <c r="C35" s="23"/>
@@ -1731,7 +1737,7 @@
       <c r="G35" s="23"/>
       <c r="H35" s="20"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="19"/>
       <c r="B36" s="23"/>
       <c r="C36" s="23"/>
@@ -1741,7 +1747,7 @@
       <c r="G36" s="23"/>
       <c r="H36" s="20"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="19"/>
       <c r="B37" s="23"/>
       <c r="C37" s="23"/>
@@ -1751,7 +1757,7 @@
       <c r="G37" s="23"/>
       <c r="H37" s="20"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="19"/>
       <c r="B38" s="23"/>
       <c r="C38" s="23"/>
@@ -1761,7 +1767,7 @@
       <c r="G38" s="23"/>
       <c r="H38" s="20"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="19"/>
       <c r="B39" s="23"/>
       <c r="C39" s="23"/>
@@ -1771,7 +1777,7 @@
       <c r="G39" s="23"/>
       <c r="H39" s="20"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="19"/>
       <c r="B40" s="23"/>
       <c r="C40" s="23"/>
@@ -1781,7 +1787,7 @@
       <c r="G40" s="23"/>
       <c r="H40" s="20"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="19"/>
       <c r="B41" s="23"/>
       <c r="C41" s="23"/>
@@ -1791,7 +1797,7 @@
       <c r="G41" s="23"/>
       <c r="H41" s="20"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="19"/>
       <c r="B42" s="23"/>
       <c r="C42" s="23"/>
@@ -1801,7 +1807,7 @@
       <c r="G42" s="23"/>
       <c r="H42" s="20"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="19"/>
       <c r="B43" s="23"/>
       <c r="C43" s="23"/>
@@ -1811,7 +1817,7 @@
       <c r="G43" s="23"/>
       <c r="H43" s="20"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="19"/>
       <c r="B44" s="23"/>
       <c r="C44" s="23"/>
@@ -1821,7 +1827,7 @@
       <c r="G44" s="23"/>
       <c r="H44" s="20"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="19"/>
       <c r="B45" s="23"/>
       <c r="C45" s="23"/>
@@ -1831,7 +1837,7 @@
       <c r="G45" s="23"/>
       <c r="H45" s="20"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="19"/>
       <c r="B46" s="23"/>
       <c r="C46" s="23"/>
@@ -1841,7 +1847,7 @@
       <c r="G46" s="23"/>
       <c r="H46" s="20"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="19"/>
       <c r="B47" s="23"/>
       <c r="C47" s="23"/>
@@ -1851,7 +1857,7 @@
       <c r="G47" s="23"/>
       <c r="H47" s="20"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="19"/>
       <c r="B48" s="23"/>
       <c r="C48" s="23"/>
@@ -1861,7 +1867,7 @@
       <c r="G48" s="23"/>
       <c r="H48" s="20"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="19"/>
       <c r="B49" s="23"/>
       <c r="C49" s="23"/>
@@ -1871,7 +1877,7 @@
       <c r="G49" s="23"/>
       <c r="H49" s="20"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="19"/>
       <c r="B50" s="23"/>
       <c r="C50" s="23"/>
@@ -1881,7 +1887,7 @@
       <c r="G50" s="23"/>
       <c r="H50" s="20"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="19"/>
       <c r="B51" s="23"/>
       <c r="C51" s="23"/>
@@ -1891,7 +1897,7 @@
       <c r="G51" s="23"/>
       <c r="H51" s="20"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="19"/>
       <c r="B52" s="23"/>
       <c r="C52" s="23"/>
@@ -1901,7 +1907,7 @@
       <c r="G52" s="23"/>
       <c r="H52" s="20"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="19"/>
       <c r="B53" s="23"/>
       <c r="C53" s="23"/>
@@ -1911,7 +1917,7 @@
       <c r="G53" s="23"/>
       <c r="H53" s="20"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="19"/>
       <c r="B54" s="23"/>
       <c r="C54" s="23"/>
@@ -1921,7 +1927,7 @@
       <c r="G54" s="23"/>
       <c r="H54" s="20"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="19"/>
       <c r="B55" s="23"/>
       <c r="C55" s="23"/>
@@ -1931,7 +1937,7 @@
       <c r="G55" s="23"/>
       <c r="H55" s="20"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="19"/>
       <c r="B56" s="23"/>
       <c r="C56" s="23"/>
@@ -1941,7 +1947,7 @@
       <c r="G56" s="23"/>
       <c r="H56" s="20"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="19"/>
       <c r="B57" s="23"/>
       <c r="C57" s="23"/>
@@ -1951,7 +1957,7 @@
       <c r="G57" s="23"/>
       <c r="H57" s="20"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="19"/>
       <c r="B58" s="23"/>
       <c r="C58" s="23"/>
@@ -1961,7 +1967,7 @@
       <c r="G58" s="23"/>
       <c r="H58" s="20"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="19"/>
       <c r="B59" s="23"/>
       <c r="C59" s="23"/>
@@ -1971,7 +1977,7 @@
       <c r="G59" s="23"/>
       <c r="H59" s="20"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="19"/>
       <c r="B60" s="23"/>
       <c r="C60" s="23"/>
@@ -1981,7 +1987,7 @@
       <c r="G60" s="23"/>
       <c r="H60" s="20"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="19"/>
       <c r="B61" s="23"/>
       <c r="C61" s="23"/>
@@ -1991,7 +1997,7 @@
       <c r="G61" s="23"/>
       <c r="H61" s="20"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="19"/>
       <c r="B62" s="23"/>
       <c r="C62" s="23"/>
@@ -2001,7 +2007,7 @@
       <c r="G62" s="23"/>
       <c r="H62" s="20"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="19"/>
       <c r="B63" s="23"/>
       <c r="C63" s="23"/>
@@ -2011,7 +2017,7 @@
       <c r="G63" s="23"/>
       <c r="H63" s="20"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="19"/>
       <c r="B64" s="23"/>
       <c r="C64" s="23"/>
@@ -2021,7 +2027,7 @@
       <c r="G64" s="23"/>
       <c r="H64" s="20"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="19"/>
       <c r="B65" s="23"/>
       <c r="C65" s="23"/>
@@ -2031,7 +2037,7 @@
       <c r="G65" s="23"/>
       <c r="H65" s="20"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="19"/>
       <c r="B66" s="23"/>
       <c r="C66" s="23"/>
@@ -2041,7 +2047,7 @@
       <c r="G66" s="23"/>
       <c r="H66" s="20"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="19"/>
       <c r="B67" s="23"/>
       <c r="C67" s="23"/>
@@ -2051,7 +2057,7 @@
       <c r="G67" s="23"/>
       <c r="H67" s="20"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="19"/>
       <c r="B68" s="23"/>
       <c r="C68" s="23"/>
@@ -2061,7 +2067,7 @@
       <c r="G68" s="23"/>
       <c r="H68" s="20"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="19"/>
       <c r="B69" s="23"/>
       <c r="C69" s="23"/>
@@ -2071,7 +2077,7 @@
       <c r="G69" s="23"/>
       <c r="H69" s="20"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="19"/>
       <c r="B70" s="23"/>
       <c r="C70" s="23"/>
@@ -2081,7 +2087,7 @@
       <c r="G70" s="23"/>
       <c r="H70" s="20"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="19"/>
       <c r="B71" s="23"/>
       <c r="C71" s="23"/>
@@ -2091,7 +2097,7 @@
       <c r="G71" s="23"/>
       <c r="H71" s="20"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="19"/>
       <c r="B72" s="23"/>
       <c r="C72" s="23"/>
@@ -2101,7 +2107,7 @@
       <c r="G72" s="23"/>
       <c r="H72" s="20"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="19"/>
       <c r="B73" s="23"/>
       <c r="C73" s="23"/>
@@ -2111,7 +2117,7 @@
       <c r="G73" s="23"/>
       <c r="H73" s="20"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="19"/>
       <c r="B74" s="23"/>
       <c r="C74" s="23"/>
@@ -2121,7 +2127,7 @@
       <c r="G74" s="23"/>
       <c r="H74" s="20"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="19"/>
       <c r="B75" s="23"/>
       <c r="C75" s="23"/>
@@ -2131,7 +2137,7 @@
       <c r="G75" s="23"/>
       <c r="H75" s="20"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="19"/>
       <c r="B76" s="23"/>
       <c r="C76" s="23"/>
@@ -2141,7 +2147,7 @@
       <c r="G76" s="23"/>
       <c r="H76" s="20"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="19"/>
       <c r="B77" s="23"/>
       <c r="C77" s="23"/>
@@ -2151,7 +2157,7 @@
       <c r="G77" s="23"/>
       <c r="H77" s="20"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="19"/>
       <c r="B78" s="23"/>
       <c r="C78" s="23"/>
@@ -2161,7 +2167,7 @@
       <c r="G78" s="23"/>
       <c r="H78" s="20"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="19"/>
       <c r="B79" s="23"/>
       <c r="C79" s="23"/>
@@ -2171,7 +2177,7 @@
       <c r="G79" s="23"/>
       <c r="H79" s="20"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="19"/>
       <c r="B80" s="23"/>
       <c r="C80" s="23"/>
@@ -2181,7 +2187,7 @@
       <c r="G80" s="23"/>
       <c r="H80" s="20"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="19"/>
       <c r="B81" s="23"/>
       <c r="C81" s="23"/>
@@ -2191,7 +2197,7 @@
       <c r="G81" s="23"/>
       <c r="H81" s="20"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="19"/>
       <c r="B82" s="23"/>
       <c r="C82" s="23"/>
@@ -2201,7 +2207,7 @@
       <c r="G82" s="23"/>
       <c r="H82" s="20"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="19"/>
       <c r="B83" s="23"/>
       <c r="C83" s="23"/>
@@ -2211,7 +2217,7 @@
       <c r="G83" s="23"/>
       <c r="H83" s="20"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="19"/>
       <c r="B84" s="23"/>
       <c r="C84" s="23"/>
@@ -2221,7 +2227,7 @@
       <c r="G84" s="23"/>
       <c r="H84" s="20"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="19"/>
       <c r="B85" s="23"/>
       <c r="C85" s="23"/>
@@ -2231,7 +2237,7 @@
       <c r="G85" s="23"/>
       <c r="H85" s="20"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="19"/>
       <c r="B86" s="23"/>
       <c r="C86" s="23"/>
@@ -2241,7 +2247,7 @@
       <c r="G86" s="23"/>
       <c r="H86" s="20"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="19"/>
       <c r="B87" s="23"/>
       <c r="C87" s="23"/>
@@ -2251,7 +2257,7 @@
       <c r="G87" s="23"/>
       <c r="H87" s="20"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="19"/>
       <c r="B88" s="23"/>
       <c r="C88" s="23"/>
@@ -2261,7 +2267,7 @@
       <c r="G88" s="23"/>
       <c r="H88" s="20"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="19"/>
       <c r="B89" s="23"/>
       <c r="C89" s="23"/>
@@ -2271,7 +2277,7 @@
       <c r="G89" s="23"/>
       <c r="H89" s="20"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="19"/>
       <c r="B90" s="23"/>
       <c r="C90" s="23"/>
@@ -2281,7 +2287,7 @@
       <c r="G90" s="23"/>
       <c r="H90" s="20"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="19"/>
       <c r="B91" s="23"/>
       <c r="C91" s="23"/>
@@ -2291,7 +2297,7 @@
       <c r="G91" s="23"/>
       <c r="H91" s="20"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="19"/>
       <c r="B92" s="23"/>
       <c r="C92" s="23"/>
@@ -2301,7 +2307,7 @@
       <c r="G92" s="23"/>
       <c r="H92" s="20"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="19"/>
       <c r="B93" s="23"/>
       <c r="C93" s="23"/>
@@ -2311,7 +2317,7 @@
       <c r="G93" s="23"/>
       <c r="H93" s="20"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="19"/>
       <c r="B94" s="23"/>
       <c r="C94" s="23"/>
@@ -2321,7 +2327,7 @@
       <c r="G94" s="23"/>
       <c r="H94" s="20"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="19"/>
       <c r="B95" s="23"/>
       <c r="C95" s="23"/>
@@ -2331,7 +2337,7 @@
       <c r="G95" s="23"/>
       <c r="H95" s="20"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="19"/>
       <c r="B96" s="23"/>
       <c r="C96" s="23"/>
@@ -2341,7 +2347,7 @@
       <c r="G96" s="23"/>
       <c r="H96" s="20"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="19"/>
       <c r="B97" s="23"/>
       <c r="C97" s="23"/>
@@ -2351,7 +2357,7 @@
       <c r="G97" s="23"/>
       <c r="H97" s="20"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="19"/>
       <c r="B98" s="23"/>
       <c r="C98" s="23"/>
@@ -2361,7 +2367,7 @@
       <c r="G98" s="23"/>
       <c r="H98" s="20"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="19"/>
       <c r="B99" s="23"/>
       <c r="C99" s="23"/>
@@ -2371,7 +2377,7 @@
       <c r="G99" s="23"/>
       <c r="H99" s="20"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="19"/>
       <c r="B100" s="23"/>
       <c r="C100" s="23"/>
@@ -2381,7 +2387,7 @@
       <c r="G100" s="23"/>
       <c r="H100" s="20"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="19"/>
       <c r="B101" s="23"/>
       <c r="C101" s="23"/>
@@ -2391,7 +2397,7 @@
       <c r="G101" s="23"/>
       <c r="H101" s="20"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="19"/>
       <c r="B102" s="23"/>
       <c r="C102" s="23"/>
@@ -2401,7 +2407,7 @@
       <c r="G102" s="23"/>
       <c r="H102" s="20"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="19"/>
       <c r="B103" s="23"/>
       <c r="C103" s="23"/>
@@ -2411,7 +2417,7 @@
       <c r="G103" s="23"/>
       <c r="H103" s="20"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="19"/>
       <c r="B104" s="23"/>
       <c r="C104" s="23"/>
@@ -2421,7 +2427,7 @@
       <c r="G104" s="23"/>
       <c r="H104" s="20"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="19"/>
       <c r="B105" s="23"/>
       <c r="C105" s="23"/>
@@ -2431,7 +2437,7 @@
       <c r="G105" s="23"/>
       <c r="H105" s="20"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="19"/>
       <c r="B106" s="23"/>
       <c r="C106" s="23"/>
@@ -2441,7 +2447,7 @@
       <c r="G106" s="23"/>
       <c r="H106" s="20"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="19"/>
       <c r="B107" s="23"/>
       <c r="C107" s="23"/>
@@ -2451,7 +2457,7 @@
       <c r="G107" s="23"/>
       <c r="H107" s="20"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="19"/>
       <c r="B108" s="23"/>
       <c r="C108" s="23"/>
@@ -2461,7 +2467,7 @@
       <c r="G108" s="23"/>
       <c r="H108" s="20"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="19"/>
       <c r="B109" s="23"/>
       <c r="C109" s="23"/>
@@ -2471,7 +2477,7 @@
       <c r="G109" s="23"/>
       <c r="H109" s="20"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="19"/>
       <c r="B110" s="23"/>
       <c r="C110" s="23"/>
@@ -2481,7 +2487,7 @@
       <c r="G110" s="23"/>
       <c r="H110" s="20"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="19"/>
       <c r="B111" s="23"/>
       <c r="C111" s="23"/>
@@ -2491,7 +2497,7 @@
       <c r="G111" s="23"/>
       <c r="H111" s="20"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="19"/>
       <c r="B112" s="23"/>
       <c r="C112" s="23"/>
@@ -2501,7 +2507,7 @@
       <c r="G112" s="23"/>
       <c r="H112" s="20"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="19"/>
       <c r="B113" s="23"/>
       <c r="C113" s="23"/>
@@ -2511,7 +2517,7 @@
       <c r="G113" s="23"/>
       <c r="H113" s="20"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="19"/>
       <c r="B114" s="23"/>
       <c r="C114" s="23"/>
@@ -2521,7 +2527,7 @@
       <c r="G114" s="23"/>
       <c r="H114" s="20"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="19"/>
       <c r="B115" s="23"/>
       <c r="C115" s="23"/>
@@ -2531,7 +2537,7 @@
       <c r="G115" s="23"/>
       <c r="H115" s="20"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="19"/>
       <c r="B116" s="23"/>
       <c r="C116" s="23"/>
@@ -2541,7 +2547,7 @@
       <c r="G116" s="23"/>
       <c r="H116" s="20"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="19"/>
       <c r="B117" s="23"/>
       <c r="C117" s="23"/>
@@ -2551,7 +2557,7 @@
       <c r="G117" s="23"/>
       <c r="H117" s="20"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="19"/>
       <c r="B118" s="23"/>
       <c r="C118" s="23"/>
@@ -2561,7 +2567,7 @@
       <c r="G118" s="23"/>
       <c r="H118" s="20"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="19"/>
       <c r="B119" s="23"/>
       <c r="C119" s="23"/>
@@ -2571,7 +2577,7 @@
       <c r="G119" s="23"/>
       <c r="H119" s="20"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="19"/>
       <c r="B120" s="23"/>
       <c r="C120" s="23"/>
@@ -2581,7 +2587,7 @@
       <c r="G120" s="23"/>
       <c r="H120" s="20"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="19"/>
       <c r="B121" s="23"/>
       <c r="C121" s="23"/>
@@ -2591,7 +2597,7 @@
       <c r="G121" s="23"/>
       <c r="H121" s="20"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="19"/>
       <c r="B122" s="23"/>
       <c r="C122" s="23"/>
@@ -2601,7 +2607,7 @@
       <c r="G122" s="23"/>
       <c r="H122" s="20"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="19"/>
       <c r="B123" s="23"/>
       <c r="C123" s="23"/>
@@ -2611,7 +2617,7 @@
       <c r="G123" s="23"/>
       <c r="H123" s="20"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="19"/>
       <c r="B124" s="23"/>
       <c r="C124" s="23"/>
@@ -2621,7 +2627,7 @@
       <c r="G124" s="23"/>
       <c r="H124" s="20"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="19"/>
       <c r="B125" s="23"/>
       <c r="C125" s="23"/>
@@ -2631,7 +2637,7 @@
       <c r="G125" s="23"/>
       <c r="H125" s="20"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="19"/>
       <c r="B126" s="23"/>
       <c r="C126" s="23"/>
@@ -2641,7 +2647,7 @@
       <c r="G126" s="23"/>
       <c r="H126" s="20"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="19"/>
       <c r="B127" s="23"/>
       <c r="C127" s="23"/>
@@ -2651,7 +2657,7 @@
       <c r="G127" s="23"/>
       <c r="H127" s="20"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="19"/>
       <c r="B128" s="23"/>
       <c r="C128" s="23"/>
@@ -2661,7 +2667,7 @@
       <c r="G128" s="23"/>
       <c r="H128" s="20"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="19"/>
       <c r="B129" s="23"/>
       <c r="C129" s="23"/>
@@ -2671,7 +2677,7 @@
       <c r="G129" s="23"/>
       <c r="H129" s="20"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="19"/>
       <c r="B130" s="23"/>
       <c r="C130" s="23"/>
@@ -2681,7 +2687,7 @@
       <c r="G130" s="23"/>
       <c r="H130" s="20"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="19"/>
       <c r="B131" s="23"/>
       <c r="C131" s="23"/>
@@ -2691,7 +2697,7 @@
       <c r="G131" s="23"/>
       <c r="H131" s="20"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="19"/>
       <c r="B132" s="23"/>
       <c r="C132" s="23"/>
@@ -2701,7 +2707,7 @@
       <c r="G132" s="23"/>
       <c r="H132" s="20"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="19"/>
       <c r="B133" s="23"/>
       <c r="C133" s="23"/>
@@ -2711,7 +2717,7 @@
       <c r="G133" s="23"/>
       <c r="H133" s="20"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="19"/>
       <c r="B134" s="23"/>
       <c r="C134" s="23"/>
@@ -2721,7 +2727,7 @@
       <c r="G134" s="23"/>
       <c r="H134" s="20"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="19"/>
       <c r="B135" s="23"/>
       <c r="C135" s="23"/>
@@ -2731,7 +2737,7 @@
       <c r="G135" s="23"/>
       <c r="H135" s="20"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="19"/>
       <c r="B136" s="23"/>
       <c r="C136" s="23"/>
@@ -2741,7 +2747,7 @@
       <c r="G136" s="23"/>
       <c r="H136" s="20"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="19"/>
       <c r="B137" s="23"/>
       <c r="C137" s="23"/>
@@ -2751,7 +2757,7 @@
       <c r="G137" s="23"/>
       <c r="H137" s="20"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="19"/>
       <c r="B138" s="23"/>
       <c r="C138" s="23"/>
@@ -2761,7 +2767,7 @@
       <c r="G138" s="23"/>
       <c r="H138" s="20"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="19"/>
       <c r="B139" s="23"/>
       <c r="C139" s="23"/>
@@ -2771,7 +2777,7 @@
       <c r="G139" s="23"/>
       <c r="H139" s="20"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="19"/>
       <c r="B140" s="23"/>
       <c r="C140" s="23"/>
@@ -2781,7 +2787,7 @@
       <c r="G140" s="23"/>
       <c r="H140" s="20"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B141" s="22"/>
       <c r="C141" s="22"/>
       <c r="D141" s="22"/>

--- a/Atravesar Project plan 03-28-2016.xlsx
+++ b/Atravesar Project plan 03-28-2016.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AtravesarProject\Atravesar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Atravesar\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>Start Date</t>
   </si>
@@ -137,7 +137,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -145,7 +145,7 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -153,7 +153,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -161,7 +161,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -169,21 +169,21 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="22"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="26"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1010,33 +1010,33 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="83.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="83.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" customWidth="1"/>
-    <col min="6" max="7" width="10.88671875" style="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="59.109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.109375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.88671875" style="1"/>
+    <col min="6" max="7" width="10.875" style="1"/>
+    <col min="8" max="8" width="15.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="59.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="8.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="27"/>
       <c r="C2" s="8"/>
     </row>
-    <row r="3" spans="1:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="9"/>
       <c r="D3" s="2"/>
@@ -1047,7 +1047,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:11" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="6" t="s">
         <v>7</v>
@@ -1077,7 +1077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="25" t="s">
         <v>20</v>
@@ -1115,7 +1115,7 @@
       <c r="J6" s="11"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="24" t="s">
         <v>16</v>
@@ -1139,7 +1139,9 @@
       <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="26"/>
+      <c r="C8" s="26" t="s">
+        <v>30</v>
+      </c>
       <c r="D8" s="15">
         <v>0.2</v>
       </c>
@@ -1208,7 +1210,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
       <c r="B12" s="24" t="s">
         <v>22</v>
@@ -1227,7 +1229,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
       <c r="B13" s="24" t="s">
         <v>23</v>
@@ -1251,7 +1253,9 @@
       <c r="B14" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="26"/>
+      <c r="C14" s="26" t="s">
+        <v>30</v>
+      </c>
       <c r="D14" s="15">
         <v>0.2</v>
       </c>
@@ -1263,7 +1267,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="13"/>
     </row>
-    <row r="15" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
       <c r="B15" s="24" t="s">
         <v>25</v>
@@ -1301,7 +1305,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="13"/>
     </row>
-    <row r="17" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
       <c r="B17" s="24" t="s">
         <v>26</v>
@@ -1320,7 +1324,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="13"/>
     </row>
-    <row r="18" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
       <c r="B18" s="24" t="s">
         <v>27</v>
@@ -1375,19 +1379,19 @@
       <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="4.5" style="18" customWidth="1"/>
     <col min="2" max="2" width="11" style="18" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" style="18" customWidth="1"/>
-    <col min="4" max="4" width="38.6640625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" style="18" customWidth="1"/>
-    <col min="6" max="6" width="59.44140625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="23.125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="38.625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="18.875" style="18" customWidth="1"/>
+    <col min="6" max="6" width="59.5" style="18" customWidth="1"/>
     <col min="7" max="7" width="15" style="18" customWidth="1"/>
-    <col min="8" max="16384" width="10.88671875" style="18"/>
+    <col min="8" max="16384" width="10.875" style="18"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="21" t="s">
         <v>9</v>
       </c>
@@ -1407,7 +1411,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
@@ -1417,7 +1421,7 @@
       <c r="G3" s="23"/>
       <c r="H3" s="20"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
@@ -1427,7 +1431,7 @@
       <c r="G4" s="23"/>
       <c r="H4" s="20"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
@@ -1437,7 +1441,7 @@
       <c r="G5" s="23"/>
       <c r="H5" s="20"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
@@ -1447,7 +1451,7 @@
       <c r="G6" s="23"/>
       <c r="H6" s="20"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
@@ -1457,7 +1461,7 @@
       <c r="G7" s="23"/>
       <c r="H7" s="20"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -1467,7 +1471,7 @@
       <c r="G8" s="23"/>
       <c r="H8" s="20"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
@@ -1477,7 +1481,7 @@
       <c r="G9" s="23"/>
       <c r="H9" s="20"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
@@ -1487,7 +1491,7 @@
       <c r="G10" s="23"/>
       <c r="H10" s="20"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
@@ -1497,7 +1501,7 @@
       <c r="G11" s="23"/>
       <c r="H11" s="20"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
@@ -1507,7 +1511,7 @@
       <c r="G12" s="23"/>
       <c r="H12" s="20"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
@@ -1517,7 +1521,7 @@
       <c r="G13" s="23"/>
       <c r="H13" s="20"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
@@ -1527,7 +1531,7 @@
       <c r="G14" s="23"/>
       <c r="H14" s="20"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
@@ -1537,7 +1541,7 @@
       <c r="G15" s="23"/>
       <c r="H15" s="20"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
@@ -1547,7 +1551,7 @@
       <c r="G16" s="23"/>
       <c r="H16" s="20"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
@@ -1557,7 +1561,7 @@
       <c r="G17" s="23"/>
       <c r="H17" s="20"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
@@ -1567,7 +1571,7 @@
       <c r="G18" s="23"/>
       <c r="H18" s="20"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
@@ -1577,7 +1581,7 @@
       <c r="G19" s="23"/>
       <c r="H19" s="20"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
@@ -1587,7 +1591,7 @@
       <c r="G20" s="23"/>
       <c r="H20" s="20"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
@@ -1597,7 +1601,7 @@
       <c r="G21" s="23"/>
       <c r="H21" s="20"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -1607,7 +1611,7 @@
       <c r="G22" s="23"/>
       <c r="H22" s="20"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
@@ -1617,7 +1621,7 @@
       <c r="G23" s="23"/>
       <c r="H23" s="20"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
@@ -1627,7 +1631,7 @@
       <c r="G24" s="23"/>
       <c r="H24" s="20"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
       <c r="B25" s="23"/>
       <c r="C25" s="23"/>
@@ -1637,7 +1641,7 @@
       <c r="G25" s="23"/>
       <c r="H25" s="20"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
       <c r="B26" s="23"/>
       <c r="C26" s="23"/>
@@ -1647,7 +1651,7 @@
       <c r="G26" s="23"/>
       <c r="H26" s="20"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
@@ -1657,7 +1661,7 @@
       <c r="G27" s="23"/>
       <c r="H27" s="20"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="19"/>
       <c r="B28" s="23"/>
       <c r="C28" s="23"/>
@@ -1667,7 +1671,7 @@
       <c r="G28" s="23"/>
       <c r="H28" s="20"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="19"/>
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
@@ -1677,7 +1681,7 @@
       <c r="G29" s="23"/>
       <c r="H29" s="20"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="19"/>
       <c r="B30" s="23"/>
       <c r="C30" s="23"/>
@@ -1687,7 +1691,7 @@
       <c r="G30" s="23"/>
       <c r="H30" s="20"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="19"/>
       <c r="B31" s="23"/>
       <c r="C31" s="23"/>
@@ -1697,7 +1701,7 @@
       <c r="G31" s="23"/>
       <c r="H31" s="20"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="19"/>
       <c r="B32" s="23"/>
       <c r="C32" s="23"/>
@@ -1707,7 +1711,7 @@
       <c r="G32" s="23"/>
       <c r="H32" s="20"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="19"/>
       <c r="B33" s="23"/>
       <c r="C33" s="23"/>
@@ -1717,7 +1721,7 @@
       <c r="G33" s="23"/>
       <c r="H33" s="20"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="19"/>
       <c r="B34" s="23"/>
       <c r="C34" s="23"/>
@@ -1727,7 +1731,7 @@
       <c r="G34" s="23"/>
       <c r="H34" s="20"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="19"/>
       <c r="B35" s="23"/>
       <c r="C35" s="23"/>
@@ -1737,7 +1741,7 @@
       <c r="G35" s="23"/>
       <c r="H35" s="20"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="19"/>
       <c r="B36" s="23"/>
       <c r="C36" s="23"/>
@@ -1747,7 +1751,7 @@
       <c r="G36" s="23"/>
       <c r="H36" s="20"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="19"/>
       <c r="B37" s="23"/>
       <c r="C37" s="23"/>
@@ -1757,7 +1761,7 @@
       <c r="G37" s="23"/>
       <c r="H37" s="20"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="19"/>
       <c r="B38" s="23"/>
       <c r="C38" s="23"/>
@@ -1767,7 +1771,7 @@
       <c r="G38" s="23"/>
       <c r="H38" s="20"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="19"/>
       <c r="B39" s="23"/>
       <c r="C39" s="23"/>
@@ -1777,7 +1781,7 @@
       <c r="G39" s="23"/>
       <c r="H39" s="20"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="19"/>
       <c r="B40" s="23"/>
       <c r="C40" s="23"/>
@@ -1787,7 +1791,7 @@
       <c r="G40" s="23"/>
       <c r="H40" s="20"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="19"/>
       <c r="B41" s="23"/>
       <c r="C41" s="23"/>
@@ -1797,7 +1801,7 @@
       <c r="G41" s="23"/>
       <c r="H41" s="20"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="19"/>
       <c r="B42" s="23"/>
       <c r="C42" s="23"/>
@@ -1807,7 +1811,7 @@
       <c r="G42" s="23"/>
       <c r="H42" s="20"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="19"/>
       <c r="B43" s="23"/>
       <c r="C43" s="23"/>
@@ -1817,7 +1821,7 @@
       <c r="G43" s="23"/>
       <c r="H43" s="20"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="19"/>
       <c r="B44" s="23"/>
       <c r="C44" s="23"/>
@@ -1827,7 +1831,7 @@
       <c r="G44" s="23"/>
       <c r="H44" s="20"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="19"/>
       <c r="B45" s="23"/>
       <c r="C45" s="23"/>
@@ -1837,7 +1841,7 @@
       <c r="G45" s="23"/>
       <c r="H45" s="20"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="19"/>
       <c r="B46" s="23"/>
       <c r="C46" s="23"/>
@@ -1847,7 +1851,7 @@
       <c r="G46" s="23"/>
       <c r="H46" s="20"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="19"/>
       <c r="B47" s="23"/>
       <c r="C47" s="23"/>
@@ -1857,7 +1861,7 @@
       <c r="G47" s="23"/>
       <c r="H47" s="20"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="19"/>
       <c r="B48" s="23"/>
       <c r="C48" s="23"/>
@@ -1867,7 +1871,7 @@
       <c r="G48" s="23"/>
       <c r="H48" s="20"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="19"/>
       <c r="B49" s="23"/>
       <c r="C49" s="23"/>
@@ -1877,7 +1881,7 @@
       <c r="G49" s="23"/>
       <c r="H49" s="20"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="19"/>
       <c r="B50" s="23"/>
       <c r="C50" s="23"/>
@@ -1887,7 +1891,7 @@
       <c r="G50" s="23"/>
       <c r="H50" s="20"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="19"/>
       <c r="B51" s="23"/>
       <c r="C51" s="23"/>
@@ -1897,7 +1901,7 @@
       <c r="G51" s="23"/>
       <c r="H51" s="20"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="19"/>
       <c r="B52" s="23"/>
       <c r="C52" s="23"/>
@@ -1907,7 +1911,7 @@
       <c r="G52" s="23"/>
       <c r="H52" s="20"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="19"/>
       <c r="B53" s="23"/>
       <c r="C53" s="23"/>
@@ -1917,7 +1921,7 @@
       <c r="G53" s="23"/>
       <c r="H53" s="20"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="19"/>
       <c r="B54" s="23"/>
       <c r="C54" s="23"/>
@@ -1927,7 +1931,7 @@
       <c r="G54" s="23"/>
       <c r="H54" s="20"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="19"/>
       <c r="B55" s="23"/>
       <c r="C55" s="23"/>
@@ -1937,7 +1941,7 @@
       <c r="G55" s="23"/>
       <c r="H55" s="20"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="19"/>
       <c r="B56" s="23"/>
       <c r="C56" s="23"/>
@@ -1947,7 +1951,7 @@
       <c r="G56" s="23"/>
       <c r="H56" s="20"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="19"/>
       <c r="B57" s="23"/>
       <c r="C57" s="23"/>
@@ -1957,7 +1961,7 @@
       <c r="G57" s="23"/>
       <c r="H57" s="20"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="19"/>
       <c r="B58" s="23"/>
       <c r="C58" s="23"/>
@@ -1967,7 +1971,7 @@
       <c r="G58" s="23"/>
       <c r="H58" s="20"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="19"/>
       <c r="B59" s="23"/>
       <c r="C59" s="23"/>
@@ -1977,7 +1981,7 @@
       <c r="G59" s="23"/>
       <c r="H59" s="20"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="19"/>
       <c r="B60" s="23"/>
       <c r="C60" s="23"/>
@@ -1987,7 +1991,7 @@
       <c r="G60" s="23"/>
       <c r="H60" s="20"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="19"/>
       <c r="B61" s="23"/>
       <c r="C61" s="23"/>
@@ -1997,7 +2001,7 @@
       <c r="G61" s="23"/>
       <c r="H61" s="20"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="19"/>
       <c r="B62" s="23"/>
       <c r="C62" s="23"/>
@@ -2007,7 +2011,7 @@
       <c r="G62" s="23"/>
       <c r="H62" s="20"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="19"/>
       <c r="B63" s="23"/>
       <c r="C63" s="23"/>
@@ -2017,7 +2021,7 @@
       <c r="G63" s="23"/>
       <c r="H63" s="20"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="19"/>
       <c r="B64" s="23"/>
       <c r="C64" s="23"/>
@@ -2027,7 +2031,7 @@
       <c r="G64" s="23"/>
       <c r="H64" s="20"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="19"/>
       <c r="B65" s="23"/>
       <c r="C65" s="23"/>
@@ -2037,7 +2041,7 @@
       <c r="G65" s="23"/>
       <c r="H65" s="20"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="19"/>
       <c r="B66" s="23"/>
       <c r="C66" s="23"/>
@@ -2047,7 +2051,7 @@
       <c r="G66" s="23"/>
       <c r="H66" s="20"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="19"/>
       <c r="B67" s="23"/>
       <c r="C67" s="23"/>
@@ -2057,7 +2061,7 @@
       <c r="G67" s="23"/>
       <c r="H67" s="20"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="19"/>
       <c r="B68" s="23"/>
       <c r="C68" s="23"/>
@@ -2067,7 +2071,7 @@
       <c r="G68" s="23"/>
       <c r="H68" s="20"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="19"/>
       <c r="B69" s="23"/>
       <c r="C69" s="23"/>
@@ -2077,7 +2081,7 @@
       <c r="G69" s="23"/>
       <c r="H69" s="20"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="19"/>
       <c r="B70" s="23"/>
       <c r="C70" s="23"/>
@@ -2087,7 +2091,7 @@
       <c r="G70" s="23"/>
       <c r="H70" s="20"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="19"/>
       <c r="B71" s="23"/>
       <c r="C71" s="23"/>
@@ -2097,7 +2101,7 @@
       <c r="G71" s="23"/>
       <c r="H71" s="20"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="19"/>
       <c r="B72" s="23"/>
       <c r="C72" s="23"/>
@@ -2107,7 +2111,7 @@
       <c r="G72" s="23"/>
       <c r="H72" s="20"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="19"/>
       <c r="B73" s="23"/>
       <c r="C73" s="23"/>
@@ -2117,7 +2121,7 @@
       <c r="G73" s="23"/>
       <c r="H73" s="20"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="19"/>
       <c r="B74" s="23"/>
       <c r="C74" s="23"/>
@@ -2127,7 +2131,7 @@
       <c r="G74" s="23"/>
       <c r="H74" s="20"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="19"/>
       <c r="B75" s="23"/>
       <c r="C75" s="23"/>
@@ -2137,7 +2141,7 @@
       <c r="G75" s="23"/>
       <c r="H75" s="20"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="19"/>
       <c r="B76" s="23"/>
       <c r="C76" s="23"/>
@@ -2147,7 +2151,7 @@
       <c r="G76" s="23"/>
       <c r="H76" s="20"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="19"/>
       <c r="B77" s="23"/>
       <c r="C77" s="23"/>
@@ -2157,7 +2161,7 @@
       <c r="G77" s="23"/>
       <c r="H77" s="20"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="19"/>
       <c r="B78" s="23"/>
       <c r="C78" s="23"/>
@@ -2167,7 +2171,7 @@
       <c r="G78" s="23"/>
       <c r="H78" s="20"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="19"/>
       <c r="B79" s="23"/>
       <c r="C79" s="23"/>
@@ -2177,7 +2181,7 @@
       <c r="G79" s="23"/>
       <c r="H79" s="20"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="19"/>
       <c r="B80" s="23"/>
       <c r="C80" s="23"/>
@@ -2187,7 +2191,7 @@
       <c r="G80" s="23"/>
       <c r="H80" s="20"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="19"/>
       <c r="B81" s="23"/>
       <c r="C81" s="23"/>
@@ -2197,7 +2201,7 @@
       <c r="G81" s="23"/>
       <c r="H81" s="20"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="19"/>
       <c r="B82" s="23"/>
       <c r="C82" s="23"/>
@@ -2207,7 +2211,7 @@
       <c r="G82" s="23"/>
       <c r="H82" s="20"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="19"/>
       <c r="B83" s="23"/>
       <c r="C83" s="23"/>
@@ -2217,7 +2221,7 @@
       <c r="G83" s="23"/>
       <c r="H83" s="20"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="19"/>
       <c r="B84" s="23"/>
       <c r="C84" s="23"/>
@@ -2227,7 +2231,7 @@
       <c r="G84" s="23"/>
       <c r="H84" s="20"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="19"/>
       <c r="B85" s="23"/>
       <c r="C85" s="23"/>
@@ -2237,7 +2241,7 @@
       <c r="G85" s="23"/>
       <c r="H85" s="20"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="19"/>
       <c r="B86" s="23"/>
       <c r="C86" s="23"/>
@@ -2247,7 +2251,7 @@
       <c r="G86" s="23"/>
       <c r="H86" s="20"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="19"/>
       <c r="B87" s="23"/>
       <c r="C87" s="23"/>
@@ -2257,7 +2261,7 @@
       <c r="G87" s="23"/>
       <c r="H87" s="20"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="19"/>
       <c r="B88" s="23"/>
       <c r="C88" s="23"/>
@@ -2267,7 +2271,7 @@
       <c r="G88" s="23"/>
       <c r="H88" s="20"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="19"/>
       <c r="B89" s="23"/>
       <c r="C89" s="23"/>
@@ -2277,7 +2281,7 @@
       <c r="G89" s="23"/>
       <c r="H89" s="20"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="19"/>
       <c r="B90" s="23"/>
       <c r="C90" s="23"/>
@@ -2287,7 +2291,7 @@
       <c r="G90" s="23"/>
       <c r="H90" s="20"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="19"/>
       <c r="B91" s="23"/>
       <c r="C91" s="23"/>
@@ -2297,7 +2301,7 @@
       <c r="G91" s="23"/>
       <c r="H91" s="20"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="19"/>
       <c r="B92" s="23"/>
       <c r="C92" s="23"/>
@@ -2307,7 +2311,7 @@
       <c r="G92" s="23"/>
       <c r="H92" s="20"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="19"/>
       <c r="B93" s="23"/>
       <c r="C93" s="23"/>
@@ -2317,7 +2321,7 @@
       <c r="G93" s="23"/>
       <c r="H93" s="20"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="19"/>
       <c r="B94" s="23"/>
       <c r="C94" s="23"/>
@@ -2327,7 +2331,7 @@
       <c r="G94" s="23"/>
       <c r="H94" s="20"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="19"/>
       <c r="B95" s="23"/>
       <c r="C95" s="23"/>
@@ -2337,7 +2341,7 @@
       <c r="G95" s="23"/>
       <c r="H95" s="20"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="19"/>
       <c r="B96" s="23"/>
       <c r="C96" s="23"/>
@@ -2347,7 +2351,7 @@
       <c r="G96" s="23"/>
       <c r="H96" s="20"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="19"/>
       <c r="B97" s="23"/>
       <c r="C97" s="23"/>
@@ -2357,7 +2361,7 @@
       <c r="G97" s="23"/>
       <c r="H97" s="20"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="19"/>
       <c r="B98" s="23"/>
       <c r="C98" s="23"/>
@@ -2367,7 +2371,7 @@
       <c r="G98" s="23"/>
       <c r="H98" s="20"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="19"/>
       <c r="B99" s="23"/>
       <c r="C99" s="23"/>
@@ -2377,7 +2381,7 @@
       <c r="G99" s="23"/>
       <c r="H99" s="20"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="19"/>
       <c r="B100" s="23"/>
       <c r="C100" s="23"/>
@@ -2387,7 +2391,7 @@
       <c r="G100" s="23"/>
       <c r="H100" s="20"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="19"/>
       <c r="B101" s="23"/>
       <c r="C101" s="23"/>
@@ -2397,7 +2401,7 @@
       <c r="G101" s="23"/>
       <c r="H101" s="20"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="19"/>
       <c r="B102" s="23"/>
       <c r="C102" s="23"/>
@@ -2407,7 +2411,7 @@
       <c r="G102" s="23"/>
       <c r="H102" s="20"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="19"/>
       <c r="B103" s="23"/>
       <c r="C103" s="23"/>
@@ -2417,7 +2421,7 @@
       <c r="G103" s="23"/>
       <c r="H103" s="20"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="19"/>
       <c r="B104" s="23"/>
       <c r="C104" s="23"/>
@@ -2427,7 +2431,7 @@
       <c r="G104" s="23"/>
       <c r="H104" s="20"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="19"/>
       <c r="B105" s="23"/>
       <c r="C105" s="23"/>
@@ -2437,7 +2441,7 @@
       <c r="G105" s="23"/>
       <c r="H105" s="20"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="19"/>
       <c r="B106" s="23"/>
       <c r="C106" s="23"/>
@@ -2447,7 +2451,7 @@
       <c r="G106" s="23"/>
       <c r="H106" s="20"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="19"/>
       <c r="B107" s="23"/>
       <c r="C107" s="23"/>
@@ -2457,7 +2461,7 @@
       <c r="G107" s="23"/>
       <c r="H107" s="20"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="19"/>
       <c r="B108" s="23"/>
       <c r="C108" s="23"/>
@@ -2467,7 +2471,7 @@
       <c r="G108" s="23"/>
       <c r="H108" s="20"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="19"/>
       <c r="B109" s="23"/>
       <c r="C109" s="23"/>
@@ -2477,7 +2481,7 @@
       <c r="G109" s="23"/>
       <c r="H109" s="20"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="19"/>
       <c r="B110" s="23"/>
       <c r="C110" s="23"/>
@@ -2487,7 +2491,7 @@
       <c r="G110" s="23"/>
       <c r="H110" s="20"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="19"/>
       <c r="B111" s="23"/>
       <c r="C111" s="23"/>
@@ -2497,7 +2501,7 @@
       <c r="G111" s="23"/>
       <c r="H111" s="20"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="19"/>
       <c r="B112" s="23"/>
       <c r="C112" s="23"/>
@@ -2507,7 +2511,7 @@
       <c r="G112" s="23"/>
       <c r="H112" s="20"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="19"/>
       <c r="B113" s="23"/>
       <c r="C113" s="23"/>
@@ -2517,7 +2521,7 @@
       <c r="G113" s="23"/>
       <c r="H113" s="20"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="19"/>
       <c r="B114" s="23"/>
       <c r="C114" s="23"/>
@@ -2527,7 +2531,7 @@
       <c r="G114" s="23"/>
       <c r="H114" s="20"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="19"/>
       <c r="B115" s="23"/>
       <c r="C115" s="23"/>
@@ -2537,7 +2541,7 @@
       <c r="G115" s="23"/>
       <c r="H115" s="20"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="19"/>
       <c r="B116" s="23"/>
       <c r="C116" s="23"/>
@@ -2547,7 +2551,7 @@
       <c r="G116" s="23"/>
       <c r="H116" s="20"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="19"/>
       <c r="B117" s="23"/>
       <c r="C117" s="23"/>
@@ -2557,7 +2561,7 @@
       <c r="G117" s="23"/>
       <c r="H117" s="20"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="19"/>
       <c r="B118" s="23"/>
       <c r="C118" s="23"/>
@@ -2567,7 +2571,7 @@
       <c r="G118" s="23"/>
       <c r="H118" s="20"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="19"/>
       <c r="B119" s="23"/>
       <c r="C119" s="23"/>
@@ -2577,7 +2581,7 @@
       <c r="G119" s="23"/>
       <c r="H119" s="20"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="19"/>
       <c r="B120" s="23"/>
       <c r="C120" s="23"/>
@@ -2587,7 +2591,7 @@
       <c r="G120" s="23"/>
       <c r="H120" s="20"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="19"/>
       <c r="B121" s="23"/>
       <c r="C121" s="23"/>
@@ -2597,7 +2601,7 @@
       <c r="G121" s="23"/>
       <c r="H121" s="20"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="19"/>
       <c r="B122" s="23"/>
       <c r="C122" s="23"/>
@@ -2607,7 +2611,7 @@
       <c r="G122" s="23"/>
       <c r="H122" s="20"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="19"/>
       <c r="B123" s="23"/>
       <c r="C123" s="23"/>
@@ -2617,7 +2621,7 @@
       <c r="G123" s="23"/>
       <c r="H123" s="20"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="19"/>
       <c r="B124" s="23"/>
       <c r="C124" s="23"/>
@@ -2627,7 +2631,7 @@
       <c r="G124" s="23"/>
       <c r="H124" s="20"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="19"/>
       <c r="B125" s="23"/>
       <c r="C125" s="23"/>
@@ -2637,7 +2641,7 @@
       <c r="G125" s="23"/>
       <c r="H125" s="20"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="19"/>
       <c r="B126" s="23"/>
       <c r="C126" s="23"/>
@@ -2647,7 +2651,7 @@
       <c r="G126" s="23"/>
       <c r="H126" s="20"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="19"/>
       <c r="B127" s="23"/>
       <c r="C127" s="23"/>
@@ -2657,7 +2661,7 @@
       <c r="G127" s="23"/>
       <c r="H127" s="20"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="19"/>
       <c r="B128" s="23"/>
       <c r="C128" s="23"/>
@@ -2667,7 +2671,7 @@
       <c r="G128" s="23"/>
       <c r="H128" s="20"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="19"/>
       <c r="B129" s="23"/>
       <c r="C129" s="23"/>
@@ -2677,7 +2681,7 @@
       <c r="G129" s="23"/>
       <c r="H129" s="20"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="19"/>
       <c r="B130" s="23"/>
       <c r="C130" s="23"/>
@@ -2687,7 +2691,7 @@
       <c r="G130" s="23"/>
       <c r="H130" s="20"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="19"/>
       <c r="B131" s="23"/>
       <c r="C131" s="23"/>
@@ -2697,7 +2701,7 @@
       <c r="G131" s="23"/>
       <c r="H131" s="20"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="19"/>
       <c r="B132" s="23"/>
       <c r="C132" s="23"/>
@@ -2707,7 +2711,7 @@
       <c r="G132" s="23"/>
       <c r="H132" s="20"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="19"/>
       <c r="B133" s="23"/>
       <c r="C133" s="23"/>
@@ -2717,7 +2721,7 @@
       <c r="G133" s="23"/>
       <c r="H133" s="20"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="19"/>
       <c r="B134" s="23"/>
       <c r="C134" s="23"/>
@@ -2727,7 +2731,7 @@
       <c r="G134" s="23"/>
       <c r="H134" s="20"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="19"/>
       <c r="B135" s="23"/>
       <c r="C135" s="23"/>
@@ -2737,7 +2741,7 @@
       <c r="G135" s="23"/>
       <c r="H135" s="20"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="19"/>
       <c r="B136" s="23"/>
       <c r="C136" s="23"/>
@@ -2747,7 +2751,7 @@
       <c r="G136" s="23"/>
       <c r="H136" s="20"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="19"/>
       <c r="B137" s="23"/>
       <c r="C137" s="23"/>
@@ -2757,7 +2761,7 @@
       <c r="G137" s="23"/>
       <c r="H137" s="20"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="19"/>
       <c r="B138" s="23"/>
       <c r="C138" s="23"/>
@@ -2767,7 +2771,7 @@
       <c r="G138" s="23"/>
       <c r="H138" s="20"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="19"/>
       <c r="B139" s="23"/>
       <c r="C139" s="23"/>
@@ -2777,7 +2781,7 @@
       <c r="G139" s="23"/>
       <c r="H139" s="20"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="19"/>
       <c r="B140" s="23"/>
       <c r="C140" s="23"/>
@@ -2787,7 +2791,7 @@
       <c r="G140" s="23"/>
       <c r="H140" s="20"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B141" s="22"/>
       <c r="C141" s="22"/>
       <c r="D141" s="22"/>

--- a/Atravesar Project plan 03-28-2016.xlsx
+++ b/Atravesar Project plan 03-28-2016.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AtravesarProject\Atravesar\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9510" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9510" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Project Plan" sheetId="2" r:id="rId1"/>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>Start Date</t>
   </si>
@@ -137,7 +132,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -145,7 +140,7 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -153,7 +148,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -161,7 +156,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -169,21 +164,21 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="22"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="26"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1010,33 +1005,33 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="83.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="83.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" customWidth="1"/>
-    <col min="6" max="7" width="10.88671875" style="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="59.109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.109375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.88671875" style="1"/>
+    <col min="6" max="7" width="10.875" style="1"/>
+    <col min="8" max="8" width="15.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="59.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="8.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="27"/>
       <c r="C2" s="8"/>
     </row>
-    <row r="3" spans="1:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="9"/>
       <c r="D3" s="2"/>
@@ -1047,7 +1042,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:11" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="6" t="s">
         <v>7</v>
@@ -1077,7 +1072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="25" t="s">
         <v>20</v>
@@ -1115,7 +1110,7 @@
       <c r="J6" s="11"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="24" t="s">
         <v>16</v>
@@ -1139,7 +1134,9 @@
       <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="26"/>
+      <c r="C8" s="26" t="s">
+        <v>30</v>
+      </c>
       <c r="D8" s="15">
         <v>0.2</v>
       </c>
@@ -1208,7 +1205,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
       <c r="B12" s="24" t="s">
         <v>22</v>
@@ -1227,7 +1224,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
       <c r="B13" s="24" t="s">
         <v>23</v>
@@ -1251,7 +1248,9 @@
       <c r="B14" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="26"/>
+      <c r="C14" s="26" t="s">
+        <v>30</v>
+      </c>
       <c r="D14" s="15">
         <v>0.2</v>
       </c>
@@ -1263,7 +1262,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="13"/>
     </row>
-    <row r="15" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
       <c r="B15" s="24" t="s">
         <v>25</v>
@@ -1301,7 +1300,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="13"/>
     </row>
-    <row r="17" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
       <c r="B17" s="24" t="s">
         <v>26</v>
@@ -1320,7 +1319,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="13"/>
     </row>
-    <row r="18" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
       <c r="B18" s="24" t="s">
         <v>27</v>
@@ -1375,19 +1374,19 @@
       <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="4.5" style="18" customWidth="1"/>
     <col min="2" max="2" width="11" style="18" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" style="18" customWidth="1"/>
-    <col min="4" max="4" width="38.6640625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" style="18" customWidth="1"/>
-    <col min="6" max="6" width="59.44140625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="23.125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="38.625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="18.875" style="18" customWidth="1"/>
+    <col min="6" max="6" width="59.5" style="18" customWidth="1"/>
     <col min="7" max="7" width="15" style="18" customWidth="1"/>
-    <col min="8" max="16384" width="10.88671875" style="18"/>
+    <col min="8" max="16384" width="10.875" style="18"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="21" t="s">
         <v>9</v>
       </c>
@@ -1407,7 +1406,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
@@ -1417,7 +1416,7 @@
       <c r="G3" s="23"/>
       <c r="H3" s="20"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
@@ -1427,7 +1426,7 @@
       <c r="G4" s="23"/>
       <c r="H4" s="20"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
@@ -1437,7 +1436,7 @@
       <c r="G5" s="23"/>
       <c r="H5" s="20"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
@@ -1447,7 +1446,7 @@
       <c r="G6" s="23"/>
       <c r="H6" s="20"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
@@ -1457,7 +1456,7 @@
       <c r="G7" s="23"/>
       <c r="H7" s="20"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -1467,7 +1466,7 @@
       <c r="G8" s="23"/>
       <c r="H8" s="20"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
@@ -1477,7 +1476,7 @@
       <c r="G9" s="23"/>
       <c r="H9" s="20"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
@@ -1487,7 +1486,7 @@
       <c r="G10" s="23"/>
       <c r="H10" s="20"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
@@ -1497,7 +1496,7 @@
       <c r="G11" s="23"/>
       <c r="H11" s="20"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
@@ -1507,7 +1506,7 @@
       <c r="G12" s="23"/>
       <c r="H12" s="20"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
@@ -1517,7 +1516,7 @@
       <c r="G13" s="23"/>
       <c r="H13" s="20"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
@@ -1527,7 +1526,7 @@
       <c r="G14" s="23"/>
       <c r="H14" s="20"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
@@ -1537,7 +1536,7 @@
       <c r="G15" s="23"/>
       <c r="H15" s="20"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
@@ -1547,7 +1546,7 @@
       <c r="G16" s="23"/>
       <c r="H16" s="20"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
@@ -1557,7 +1556,7 @@
       <c r="G17" s="23"/>
       <c r="H17" s="20"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
@@ -1567,7 +1566,7 @@
       <c r="G18" s="23"/>
       <c r="H18" s="20"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
@@ -1577,7 +1576,7 @@
       <c r="G19" s="23"/>
       <c r="H19" s="20"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
@@ -1587,7 +1586,7 @@
       <c r="G20" s="23"/>
       <c r="H20" s="20"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
@@ -1597,7 +1596,7 @@
       <c r="G21" s="23"/>
       <c r="H21" s="20"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -1607,7 +1606,7 @@
       <c r="G22" s="23"/>
       <c r="H22" s="20"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
@@ -1617,7 +1616,7 @@
       <c r="G23" s="23"/>
       <c r="H23" s="20"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
@@ -1627,7 +1626,7 @@
       <c r="G24" s="23"/>
       <c r="H24" s="20"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
       <c r="B25" s="23"/>
       <c r="C25" s="23"/>
@@ -1637,7 +1636,7 @@
       <c r="G25" s="23"/>
       <c r="H25" s="20"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
       <c r="B26" s="23"/>
       <c r="C26" s="23"/>
@@ -1647,7 +1646,7 @@
       <c r="G26" s="23"/>
       <c r="H26" s="20"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
@@ -1657,7 +1656,7 @@
       <c r="G27" s="23"/>
       <c r="H27" s="20"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="19"/>
       <c r="B28" s="23"/>
       <c r="C28" s="23"/>
@@ -1667,7 +1666,7 @@
       <c r="G28" s="23"/>
       <c r="H28" s="20"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="19"/>
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
@@ -1677,7 +1676,7 @@
       <c r="G29" s="23"/>
       <c r="H29" s="20"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="19"/>
       <c r="B30" s="23"/>
       <c r="C30" s="23"/>
@@ -1687,7 +1686,7 @@
       <c r="G30" s="23"/>
       <c r="H30" s="20"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="19"/>
       <c r="B31" s="23"/>
       <c r="C31" s="23"/>
@@ -1697,7 +1696,7 @@
       <c r="G31" s="23"/>
       <c r="H31" s="20"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="19"/>
       <c r="B32" s="23"/>
       <c r="C32" s="23"/>
@@ -1707,7 +1706,7 @@
       <c r="G32" s="23"/>
       <c r="H32" s="20"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="19"/>
       <c r="B33" s="23"/>
       <c r="C33" s="23"/>
@@ -1717,7 +1716,7 @@
       <c r="G33" s="23"/>
       <c r="H33" s="20"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="19"/>
       <c r="B34" s="23"/>
       <c r="C34" s="23"/>
@@ -1727,7 +1726,7 @@
       <c r="G34" s="23"/>
       <c r="H34" s="20"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="19"/>
       <c r="B35" s="23"/>
       <c r="C35" s="23"/>
@@ -1737,7 +1736,7 @@
       <c r="G35" s="23"/>
       <c r="H35" s="20"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="19"/>
       <c r="B36" s="23"/>
       <c r="C36" s="23"/>
@@ -1747,7 +1746,7 @@
       <c r="G36" s="23"/>
       <c r="H36" s="20"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="19"/>
       <c r="B37" s="23"/>
       <c r="C37" s="23"/>
@@ -1757,7 +1756,7 @@
       <c r="G37" s="23"/>
       <c r="H37" s="20"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="19"/>
       <c r="B38" s="23"/>
       <c r="C38" s="23"/>
@@ -1767,7 +1766,7 @@
       <c r="G38" s="23"/>
       <c r="H38" s="20"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="19"/>
       <c r="B39" s="23"/>
       <c r="C39" s="23"/>
@@ -1777,7 +1776,7 @@
       <c r="G39" s="23"/>
       <c r="H39" s="20"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="19"/>
       <c r="B40" s="23"/>
       <c r="C40" s="23"/>
@@ -1787,7 +1786,7 @@
       <c r="G40" s="23"/>
       <c r="H40" s="20"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="19"/>
       <c r="B41" s="23"/>
       <c r="C41" s="23"/>
@@ -1797,7 +1796,7 @@
       <c r="G41" s="23"/>
       <c r="H41" s="20"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="19"/>
       <c r="B42" s="23"/>
       <c r="C42" s="23"/>
@@ -1807,7 +1806,7 @@
       <c r="G42" s="23"/>
       <c r="H42" s="20"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="19"/>
       <c r="B43" s="23"/>
       <c r="C43" s="23"/>
@@ -1817,7 +1816,7 @@
       <c r="G43" s="23"/>
       <c r="H43" s="20"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="19"/>
       <c r="B44" s="23"/>
       <c r="C44" s="23"/>
@@ -1827,7 +1826,7 @@
       <c r="G44" s="23"/>
       <c r="H44" s="20"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="19"/>
       <c r="B45" s="23"/>
       <c r="C45" s="23"/>
@@ -1837,7 +1836,7 @@
       <c r="G45" s="23"/>
       <c r="H45" s="20"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="19"/>
       <c r="B46" s="23"/>
       <c r="C46" s="23"/>
@@ -1847,7 +1846,7 @@
       <c r="G46" s="23"/>
       <c r="H46" s="20"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="19"/>
       <c r="B47" s="23"/>
       <c r="C47" s="23"/>
@@ -1857,7 +1856,7 @@
       <c r="G47" s="23"/>
       <c r="H47" s="20"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="19"/>
       <c r="B48" s="23"/>
       <c r="C48" s="23"/>
@@ -1867,7 +1866,7 @@
       <c r="G48" s="23"/>
       <c r="H48" s="20"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="19"/>
       <c r="B49" s="23"/>
       <c r="C49" s="23"/>
@@ -1877,7 +1876,7 @@
       <c r="G49" s="23"/>
       <c r="H49" s="20"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="19"/>
       <c r="B50" s="23"/>
       <c r="C50" s="23"/>
@@ -1887,7 +1886,7 @@
       <c r="G50" s="23"/>
       <c r="H50" s="20"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="19"/>
       <c r="B51" s="23"/>
       <c r="C51" s="23"/>
@@ -1897,7 +1896,7 @@
       <c r="G51" s="23"/>
       <c r="H51" s="20"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="19"/>
       <c r="B52" s="23"/>
       <c r="C52" s="23"/>
@@ -1907,7 +1906,7 @@
       <c r="G52" s="23"/>
       <c r="H52" s="20"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="19"/>
       <c r="B53" s="23"/>
       <c r="C53" s="23"/>
@@ -1917,7 +1916,7 @@
       <c r="G53" s="23"/>
       <c r="H53" s="20"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="19"/>
       <c r="B54" s="23"/>
       <c r="C54" s="23"/>
@@ -1927,7 +1926,7 @@
       <c r="G54" s="23"/>
       <c r="H54" s="20"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="19"/>
       <c r="B55" s="23"/>
       <c r="C55" s="23"/>
@@ -1937,7 +1936,7 @@
       <c r="G55" s="23"/>
       <c r="H55" s="20"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="19"/>
       <c r="B56" s="23"/>
       <c r="C56" s="23"/>
@@ -1947,7 +1946,7 @@
       <c r="G56" s="23"/>
       <c r="H56" s="20"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="19"/>
       <c r="B57" s="23"/>
       <c r="C57" s="23"/>
@@ -1957,7 +1956,7 @@
       <c r="G57" s="23"/>
       <c r="H57" s="20"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="19"/>
       <c r="B58" s="23"/>
       <c r="C58" s="23"/>
@@ -1967,7 +1966,7 @@
       <c r="G58" s="23"/>
       <c r="H58" s="20"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="19"/>
       <c r="B59" s="23"/>
       <c r="C59" s="23"/>
@@ -1977,7 +1976,7 @@
       <c r="G59" s="23"/>
       <c r="H59" s="20"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="19"/>
       <c r="B60" s="23"/>
       <c r="C60" s="23"/>
@@ -1987,7 +1986,7 @@
       <c r="G60" s="23"/>
       <c r="H60" s="20"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="19"/>
       <c r="B61" s="23"/>
       <c r="C61" s="23"/>
@@ -1997,7 +1996,7 @@
       <c r="G61" s="23"/>
       <c r="H61" s="20"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="19"/>
       <c r="B62" s="23"/>
       <c r="C62" s="23"/>
@@ -2007,7 +2006,7 @@
       <c r="G62" s="23"/>
       <c r="H62" s="20"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="19"/>
       <c r="B63" s="23"/>
       <c r="C63" s="23"/>
@@ -2017,7 +2016,7 @@
       <c r="G63" s="23"/>
       <c r="H63" s="20"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="19"/>
       <c r="B64" s="23"/>
       <c r="C64" s="23"/>
@@ -2027,7 +2026,7 @@
       <c r="G64" s="23"/>
       <c r="H64" s="20"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="19"/>
       <c r="B65" s="23"/>
       <c r="C65" s="23"/>
@@ -2037,7 +2036,7 @@
       <c r="G65" s="23"/>
       <c r="H65" s="20"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="19"/>
       <c r="B66" s="23"/>
       <c r="C66" s="23"/>
@@ -2047,7 +2046,7 @@
       <c r="G66" s="23"/>
       <c r="H66" s="20"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="19"/>
       <c r="B67" s="23"/>
       <c r="C67" s="23"/>
@@ -2057,7 +2056,7 @@
       <c r="G67" s="23"/>
       <c r="H67" s="20"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="19"/>
       <c r="B68" s="23"/>
       <c r="C68" s="23"/>
@@ -2067,7 +2066,7 @@
       <c r="G68" s="23"/>
       <c r="H68" s="20"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="19"/>
       <c r="B69" s="23"/>
       <c r="C69" s="23"/>
@@ -2077,7 +2076,7 @@
       <c r="G69" s="23"/>
       <c r="H69" s="20"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="19"/>
       <c r="B70" s="23"/>
       <c r="C70" s="23"/>
@@ -2087,7 +2086,7 @@
       <c r="G70" s="23"/>
       <c r="H70" s="20"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="19"/>
       <c r="B71" s="23"/>
       <c r="C71" s="23"/>
@@ -2097,7 +2096,7 @@
       <c r="G71" s="23"/>
       <c r="H71" s="20"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="19"/>
       <c r="B72" s="23"/>
       <c r="C72" s="23"/>
@@ -2107,7 +2106,7 @@
       <c r="G72" s="23"/>
       <c r="H72" s="20"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="19"/>
       <c r="B73" s="23"/>
       <c r="C73" s="23"/>
@@ -2117,7 +2116,7 @@
       <c r="G73" s="23"/>
       <c r="H73" s="20"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="19"/>
       <c r="B74" s="23"/>
       <c r="C74" s="23"/>
@@ -2127,7 +2126,7 @@
       <c r="G74" s="23"/>
       <c r="H74" s="20"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="19"/>
       <c r="B75" s="23"/>
       <c r="C75" s="23"/>
@@ -2137,7 +2136,7 @@
       <c r="G75" s="23"/>
       <c r="H75" s="20"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="19"/>
       <c r="B76" s="23"/>
       <c r="C76" s="23"/>
@@ -2147,7 +2146,7 @@
       <c r="G76" s="23"/>
       <c r="H76" s="20"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="19"/>
       <c r="B77" s="23"/>
       <c r="C77" s="23"/>
@@ -2157,7 +2156,7 @@
       <c r="G77" s="23"/>
       <c r="H77" s="20"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="19"/>
       <c r="B78" s="23"/>
       <c r="C78" s="23"/>
@@ -2167,7 +2166,7 @@
       <c r="G78" s="23"/>
       <c r="H78" s="20"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="19"/>
       <c r="B79" s="23"/>
       <c r="C79" s="23"/>
@@ -2177,7 +2176,7 @@
       <c r="G79" s="23"/>
       <c r="H79" s="20"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="19"/>
       <c r="B80" s="23"/>
       <c r="C80" s="23"/>
@@ -2187,7 +2186,7 @@
       <c r="G80" s="23"/>
       <c r="H80" s="20"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="19"/>
       <c r="B81" s="23"/>
       <c r="C81" s="23"/>
@@ -2197,7 +2196,7 @@
       <c r="G81" s="23"/>
       <c r="H81" s="20"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="19"/>
       <c r="B82" s="23"/>
       <c r="C82" s="23"/>
@@ -2207,7 +2206,7 @@
       <c r="G82" s="23"/>
       <c r="H82" s="20"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="19"/>
       <c r="B83" s="23"/>
       <c r="C83" s="23"/>
@@ -2217,7 +2216,7 @@
       <c r="G83" s="23"/>
       <c r="H83" s="20"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="19"/>
       <c r="B84" s="23"/>
       <c r="C84" s="23"/>
@@ -2227,7 +2226,7 @@
       <c r="G84" s="23"/>
       <c r="H84" s="20"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="19"/>
       <c r="B85" s="23"/>
       <c r="C85" s="23"/>
@@ -2237,7 +2236,7 @@
       <c r="G85" s="23"/>
       <c r="H85" s="20"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="19"/>
       <c r="B86" s="23"/>
       <c r="C86" s="23"/>
@@ -2247,7 +2246,7 @@
       <c r="G86" s="23"/>
       <c r="H86" s="20"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="19"/>
       <c r="B87" s="23"/>
       <c r="C87" s="23"/>
@@ -2257,7 +2256,7 @@
       <c r="G87" s="23"/>
       <c r="H87" s="20"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="19"/>
       <c r="B88" s="23"/>
       <c r="C88" s="23"/>
@@ -2267,7 +2266,7 @@
       <c r="G88" s="23"/>
       <c r="H88" s="20"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="19"/>
       <c r="B89" s="23"/>
       <c r="C89" s="23"/>
@@ -2277,7 +2276,7 @@
       <c r="G89" s="23"/>
       <c r="H89" s="20"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="19"/>
       <c r="B90" s="23"/>
       <c r="C90" s="23"/>
@@ -2287,7 +2286,7 @@
       <c r="G90" s="23"/>
       <c r="H90" s="20"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="19"/>
       <c r="B91" s="23"/>
       <c r="C91" s="23"/>
@@ -2297,7 +2296,7 @@
       <c r="G91" s="23"/>
       <c r="H91" s="20"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="19"/>
       <c r="B92" s="23"/>
       <c r="C92" s="23"/>
@@ -2307,7 +2306,7 @@
       <c r="G92" s="23"/>
       <c r="H92" s="20"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="19"/>
       <c r="B93" s="23"/>
       <c r="C93" s="23"/>
@@ -2317,7 +2316,7 @@
       <c r="G93" s="23"/>
       <c r="H93" s="20"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="19"/>
       <c r="B94" s="23"/>
       <c r="C94" s="23"/>
@@ -2327,7 +2326,7 @@
       <c r="G94" s="23"/>
       <c r="H94" s="20"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="19"/>
       <c r="B95" s="23"/>
       <c r="C95" s="23"/>
@@ -2337,7 +2336,7 @@
       <c r="G95" s="23"/>
       <c r="H95" s="20"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="19"/>
       <c r="B96" s="23"/>
       <c r="C96" s="23"/>
@@ -2347,7 +2346,7 @@
       <c r="G96" s="23"/>
       <c r="H96" s="20"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="19"/>
       <c r="B97" s="23"/>
       <c r="C97" s="23"/>
@@ -2357,7 +2356,7 @@
       <c r="G97" s="23"/>
       <c r="H97" s="20"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="19"/>
       <c r="B98" s="23"/>
       <c r="C98" s="23"/>
@@ -2367,7 +2366,7 @@
       <c r="G98" s="23"/>
       <c r="H98" s="20"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="19"/>
       <c r="B99" s="23"/>
       <c r="C99" s="23"/>
@@ -2377,7 +2376,7 @@
       <c r="G99" s="23"/>
       <c r="H99" s="20"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="19"/>
       <c r="B100" s="23"/>
       <c r="C100" s="23"/>
@@ -2387,7 +2386,7 @@
       <c r="G100" s="23"/>
       <c r="H100" s="20"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="19"/>
       <c r="B101" s="23"/>
       <c r="C101" s="23"/>
@@ -2397,7 +2396,7 @@
       <c r="G101" s="23"/>
       <c r="H101" s="20"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="19"/>
       <c r="B102" s="23"/>
       <c r="C102" s="23"/>
@@ -2407,7 +2406,7 @@
       <c r="G102" s="23"/>
       <c r="H102" s="20"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="19"/>
       <c r="B103" s="23"/>
       <c r="C103" s="23"/>
@@ -2417,7 +2416,7 @@
       <c r="G103" s="23"/>
       <c r="H103" s="20"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="19"/>
       <c r="B104" s="23"/>
       <c r="C104" s="23"/>
@@ -2427,7 +2426,7 @@
       <c r="G104" s="23"/>
       <c r="H104" s="20"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="19"/>
       <c r="B105" s="23"/>
       <c r="C105" s="23"/>
@@ -2437,7 +2436,7 @@
       <c r="G105" s="23"/>
       <c r="H105" s="20"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="19"/>
       <c r="B106" s="23"/>
       <c r="C106" s="23"/>
@@ -2447,7 +2446,7 @@
       <c r="G106" s="23"/>
       <c r="H106" s="20"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="19"/>
       <c r="B107" s="23"/>
       <c r="C107" s="23"/>
@@ -2457,7 +2456,7 @@
       <c r="G107" s="23"/>
       <c r="H107" s="20"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="19"/>
       <c r="B108" s="23"/>
       <c r="C108" s="23"/>
@@ -2467,7 +2466,7 @@
       <c r="G108" s="23"/>
       <c r="H108" s="20"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="19"/>
       <c r="B109" s="23"/>
       <c r="C109" s="23"/>
@@ -2477,7 +2476,7 @@
       <c r="G109" s="23"/>
       <c r="H109" s="20"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="19"/>
       <c r="B110" s="23"/>
       <c r="C110" s="23"/>
@@ -2487,7 +2486,7 @@
       <c r="G110" s="23"/>
       <c r="H110" s="20"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="19"/>
       <c r="B111" s="23"/>
       <c r="C111" s="23"/>
@@ -2497,7 +2496,7 @@
       <c r="G111" s="23"/>
       <c r="H111" s="20"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="19"/>
       <c r="B112" s="23"/>
       <c r="C112" s="23"/>
@@ -2507,7 +2506,7 @@
       <c r="G112" s="23"/>
       <c r="H112" s="20"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="19"/>
       <c r="B113" s="23"/>
       <c r="C113" s="23"/>
@@ -2517,7 +2516,7 @@
       <c r="G113" s="23"/>
       <c r="H113" s="20"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="19"/>
       <c r="B114" s="23"/>
       <c r="C114" s="23"/>
@@ -2527,7 +2526,7 @@
       <c r="G114" s="23"/>
       <c r="H114" s="20"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="19"/>
       <c r="B115" s="23"/>
       <c r="C115" s="23"/>
@@ -2537,7 +2536,7 @@
       <c r="G115" s="23"/>
       <c r="H115" s="20"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="19"/>
       <c r="B116" s="23"/>
       <c r="C116" s="23"/>
@@ -2547,7 +2546,7 @@
       <c r="G116" s="23"/>
       <c r="H116" s="20"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="19"/>
       <c r="B117" s="23"/>
       <c r="C117" s="23"/>
@@ -2557,7 +2556,7 @@
       <c r="G117" s="23"/>
       <c r="H117" s="20"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="19"/>
       <c r="B118" s="23"/>
       <c r="C118" s="23"/>
@@ -2567,7 +2566,7 @@
       <c r="G118" s="23"/>
       <c r="H118" s="20"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="19"/>
       <c r="B119" s="23"/>
       <c r="C119" s="23"/>
@@ -2577,7 +2576,7 @@
       <c r="G119" s="23"/>
       <c r="H119" s="20"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="19"/>
       <c r="B120" s="23"/>
       <c r="C120" s="23"/>
@@ -2587,7 +2586,7 @@
       <c r="G120" s="23"/>
       <c r="H120" s="20"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="19"/>
       <c r="B121" s="23"/>
       <c r="C121" s="23"/>
@@ -2597,7 +2596,7 @@
       <c r="G121" s="23"/>
       <c r="H121" s="20"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="19"/>
       <c r="B122" s="23"/>
       <c r="C122" s="23"/>
@@ -2607,7 +2606,7 @@
       <c r="G122" s="23"/>
       <c r="H122" s="20"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="19"/>
       <c r="B123" s="23"/>
       <c r="C123" s="23"/>
@@ -2617,7 +2616,7 @@
       <c r="G123" s="23"/>
       <c r="H123" s="20"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="19"/>
       <c r="B124" s="23"/>
       <c r="C124" s="23"/>
@@ -2627,7 +2626,7 @@
       <c r="G124" s="23"/>
       <c r="H124" s="20"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="19"/>
       <c r="B125" s="23"/>
       <c r="C125" s="23"/>
@@ -2637,7 +2636,7 @@
       <c r="G125" s="23"/>
       <c r="H125" s="20"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="19"/>
       <c r="B126" s="23"/>
       <c r="C126" s="23"/>
@@ -2647,7 +2646,7 @@
       <c r="G126" s="23"/>
       <c r="H126" s="20"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="19"/>
       <c r="B127" s="23"/>
       <c r="C127" s="23"/>
@@ -2657,7 +2656,7 @@
       <c r="G127" s="23"/>
       <c r="H127" s="20"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="19"/>
       <c r="B128" s="23"/>
       <c r="C128" s="23"/>
@@ -2667,7 +2666,7 @@
       <c r="G128" s="23"/>
       <c r="H128" s="20"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="19"/>
       <c r="B129" s="23"/>
       <c r="C129" s="23"/>
@@ -2677,7 +2676,7 @@
       <c r="G129" s="23"/>
       <c r="H129" s="20"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="19"/>
       <c r="B130" s="23"/>
       <c r="C130" s="23"/>
@@ -2687,7 +2686,7 @@
       <c r="G130" s="23"/>
       <c r="H130" s="20"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="19"/>
       <c r="B131" s="23"/>
       <c r="C131" s="23"/>
@@ -2697,7 +2696,7 @@
       <c r="G131" s="23"/>
       <c r="H131" s="20"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="19"/>
       <c r="B132" s="23"/>
       <c r="C132" s="23"/>
@@ -2707,7 +2706,7 @@
       <c r="G132" s="23"/>
       <c r="H132" s="20"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="19"/>
       <c r="B133" s="23"/>
       <c r="C133" s="23"/>
@@ -2717,7 +2716,7 @@
       <c r="G133" s="23"/>
       <c r="H133" s="20"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="19"/>
       <c r="B134" s="23"/>
       <c r="C134" s="23"/>
@@ -2727,7 +2726,7 @@
       <c r="G134" s="23"/>
       <c r="H134" s="20"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="19"/>
       <c r="B135" s="23"/>
       <c r="C135" s="23"/>
@@ -2737,7 +2736,7 @@
       <c r="G135" s="23"/>
       <c r="H135" s="20"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="19"/>
       <c r="B136" s="23"/>
       <c r="C136" s="23"/>
@@ -2747,7 +2746,7 @@
       <c r="G136" s="23"/>
       <c r="H136" s="20"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="19"/>
       <c r="B137" s="23"/>
       <c r="C137" s="23"/>
@@ -2757,7 +2756,7 @@
       <c r="G137" s="23"/>
       <c r="H137" s="20"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="19"/>
       <c r="B138" s="23"/>
       <c r="C138" s="23"/>
@@ -2767,7 +2766,7 @@
       <c r="G138" s="23"/>
       <c r="H138" s="20"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="19"/>
       <c r="B139" s="23"/>
       <c r="C139" s="23"/>
@@ -2777,7 +2776,7 @@
       <c r="G139" s="23"/>
       <c r="H139" s="20"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="19"/>
       <c r="B140" s="23"/>
       <c r="C140" s="23"/>
@@ -2787,7 +2786,7 @@
       <c r="G140" s="23"/>
       <c r="H140" s="20"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B141" s="22"/>
       <c r="C141" s="22"/>
       <c r="D141" s="22"/>

--- a/Atravesar Project plan 03-28-2016.xlsx
+++ b/Atravesar Project plan 03-28-2016.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AtravesarProject\Atravesar\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9510" tabRatio="500"/>
   </bookViews>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>Start Date</t>
   </si>
@@ -122,6 +127,21 @@
   </si>
   <si>
     <t>On ‘confirm booking’ button click the app crashes CTR+SHIFT+T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custom client location marker like a point and don't show "You here". We not going to track them. </t>
+  </si>
+  <si>
+    <t>Add Nearly into listview in GetAddressActivity just like "Home" and "Frequent"</t>
+  </si>
+  <si>
+    <t>move search textbox into the tool bar in GetAddressActivity</t>
+  </si>
+  <si>
+    <t>Add login option in menu bar whenever the customer not login yet</t>
+  </si>
+  <si>
+    <t>check functions SaveBooking! It's not work correctly</t>
   </si>
 </sst>
 </file>
@@ -132,7 +152,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -140,7 +160,7 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -148,7 +168,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -156,7 +176,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -164,21 +184,21 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="22"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="26"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1002,36 +1022,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="83.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="83.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" customWidth="1"/>
-    <col min="6" max="7" width="10.875" style="1"/>
-    <col min="8" max="8" width="15.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="59.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.875" style="1"/>
+    <col min="6" max="7" width="10.88671875" style="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="59.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.109375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="8.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="27"/>
       <c r="C2" s="8"/>
     </row>
-    <row r="3" spans="1:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
       <c r="C3" s="9"/>
       <c r="D3" s="2"/>
@@ -1042,7 +1062,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:11" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="6" t="s">
         <v>7</v>
@@ -1072,7 +1092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="25" t="s">
         <v>20</v>
@@ -1110,7 +1130,7 @@
       <c r="J6" s="11"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="24" t="s">
         <v>16</v>
@@ -1205,7 +1225,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
       <c r="B12" s="24" t="s">
         <v>22</v>
@@ -1224,7 +1244,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
       <c r="B13" s="24" t="s">
         <v>23</v>
@@ -1262,7 +1282,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="13"/>
     </row>
-    <row r="15" spans="1:11" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
       <c r="B15" s="24" t="s">
         <v>25</v>
@@ -1300,7 +1320,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="13"/>
     </row>
-    <row r="17" spans="1:11" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
       <c r="B17" s="24" t="s">
         <v>26</v>
@@ -1319,7 +1339,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="13"/>
     </row>
-    <row r="18" spans="1:11" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
       <c r="B18" s="24" t="s">
         <v>27</v>
@@ -1336,15 +1356,13 @@
       <c r="J18" s="11"/>
       <c r="K18" s="13"/>
     </row>
-    <row r="19" spans="1:11" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
       <c r="B19" s="24" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C19" s="26"/>
-      <c r="D19" s="15">
-        <v>0.5</v>
-      </c>
+      <c r="D19" s="15"/>
       <c r="E19" s="12"/>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
@@ -1352,6 +1370,83 @@
       <c r="I19" s="12"/>
       <c r="J19" s="11"/>
       <c r="K19" s="13"/>
+    </row>
+    <row r="20" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="10"/>
+      <c r="B20" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="13"/>
+    </row>
+    <row r="21" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="10"/>
+      <c r="B21" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="13"/>
+    </row>
+    <row r="22" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="10"/>
+      <c r="B22" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="13"/>
+    </row>
+    <row r="23" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="10"/>
+      <c r="B23" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="13"/>
+    </row>
+    <row r="24" spans="1:11" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A24" s="10"/>
+      <c r="B24" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="26"/>
+      <c r="D24" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="B4:J4"/>
@@ -1374,19 +1469,19 @@
       <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="18" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" style="18" customWidth="1"/>
     <col min="2" max="2" width="11" style="18" customWidth="1"/>
-    <col min="3" max="3" width="23.125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="38.625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="18.875" style="18" customWidth="1"/>
-    <col min="6" max="6" width="59.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" style="18" customWidth="1"/>
+    <col min="4" max="4" width="38.6640625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" style="18" customWidth="1"/>
+    <col min="6" max="6" width="59.44140625" style="18" customWidth="1"/>
     <col min="7" max="7" width="15" style="18" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="18"/>
+    <col min="8" max="16384" width="10.88671875" style="18"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="21" t="s">
         <v>9</v>
       </c>
@@ -1406,7 +1501,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
@@ -1416,7 +1511,7 @@
       <c r="G3" s="23"/>
       <c r="H3" s="20"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="19"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
@@ -1426,7 +1521,7 @@
       <c r="G4" s="23"/>
       <c r="H4" s="20"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
@@ -1436,7 +1531,7 @@
       <c r="G5" s="23"/>
       <c r="H5" s="20"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
@@ -1446,7 +1541,7 @@
       <c r="G6" s="23"/>
       <c r="H6" s="20"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
@@ -1456,7 +1551,7 @@
       <c r="G7" s="23"/>
       <c r="H7" s="20"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -1466,7 +1561,7 @@
       <c r="G8" s="23"/>
       <c r="H8" s="20"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="19"/>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
@@ -1476,7 +1571,7 @@
       <c r="G9" s="23"/>
       <c r="H9" s="20"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="19"/>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
@@ -1486,7 +1581,7 @@
       <c r="G10" s="23"/>
       <c r="H10" s="20"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
@@ -1496,7 +1591,7 @@
       <c r="G11" s="23"/>
       <c r="H11" s="20"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
@@ -1506,7 +1601,7 @@
       <c r="G12" s="23"/>
       <c r="H12" s="20"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
@@ -1516,7 +1611,7 @@
       <c r="G13" s="23"/>
       <c r="H13" s="20"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
@@ -1526,7 +1621,7 @@
       <c r="G14" s="23"/>
       <c r="H14" s="20"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
@@ -1536,7 +1631,7 @@
       <c r="G15" s="23"/>
       <c r="H15" s="20"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
@@ -1546,7 +1641,7 @@
       <c r="G16" s="23"/>
       <c r="H16" s="20"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
@@ -1556,7 +1651,7 @@
       <c r="G17" s="23"/>
       <c r="H17" s="20"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
@@ -1566,7 +1661,7 @@
       <c r="G18" s="23"/>
       <c r="H18" s="20"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="19"/>
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
@@ -1576,7 +1671,7 @@
       <c r="G19" s="23"/>
       <c r="H19" s="20"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="19"/>
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
@@ -1586,7 +1681,7 @@
       <c r="G20" s="23"/>
       <c r="H20" s="20"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="19"/>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
@@ -1596,7 +1691,7 @@
       <c r="G21" s="23"/>
       <c r="H21" s="20"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="19"/>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -1606,7 +1701,7 @@
       <c r="G22" s="23"/>
       <c r="H22" s="20"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
@@ -1616,7 +1711,7 @@
       <c r="G23" s="23"/>
       <c r="H23" s="20"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="19"/>
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
@@ -1626,7 +1721,7 @@
       <c r="G24" s="23"/>
       <c r="H24" s="20"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="19"/>
       <c r="B25" s="23"/>
       <c r="C25" s="23"/>
@@ -1636,7 +1731,7 @@
       <c r="G25" s="23"/>
       <c r="H25" s="20"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="19"/>
       <c r="B26" s="23"/>
       <c r="C26" s="23"/>
@@ -1646,7 +1741,7 @@
       <c r="G26" s="23"/>
       <c r="H26" s="20"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="19"/>
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
@@ -1656,7 +1751,7 @@
       <c r="G27" s="23"/>
       <c r="H27" s="20"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="19"/>
       <c r="B28" s="23"/>
       <c r="C28" s="23"/>
@@ -1666,7 +1761,7 @@
       <c r="G28" s="23"/>
       <c r="H28" s="20"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="19"/>
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
@@ -1676,7 +1771,7 @@
       <c r="G29" s="23"/>
       <c r="H29" s="20"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="19"/>
       <c r="B30" s="23"/>
       <c r="C30" s="23"/>
@@ -1686,7 +1781,7 @@
       <c r="G30" s="23"/>
       <c r="H30" s="20"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="19"/>
       <c r="B31" s="23"/>
       <c r="C31" s="23"/>
@@ -1696,7 +1791,7 @@
       <c r="G31" s="23"/>
       <c r="H31" s="20"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="19"/>
       <c r="B32" s="23"/>
       <c r="C32" s="23"/>
@@ -1706,7 +1801,7 @@
       <c r="G32" s="23"/>
       <c r="H32" s="20"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="19"/>
       <c r="B33" s="23"/>
       <c r="C33" s="23"/>
@@ -1716,7 +1811,7 @@
       <c r="G33" s="23"/>
       <c r="H33" s="20"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="19"/>
       <c r="B34" s="23"/>
       <c r="C34" s="23"/>
@@ -1726,7 +1821,7 @@
       <c r="G34" s="23"/>
       <c r="H34" s="20"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="19"/>
       <c r="B35" s="23"/>
       <c r="C35" s="23"/>
@@ -1736,7 +1831,7 @@
       <c r="G35" s="23"/>
       <c r="H35" s="20"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="19"/>
       <c r="B36" s="23"/>
       <c r="C36" s="23"/>
@@ -1746,7 +1841,7 @@
       <c r="G36" s="23"/>
       <c r="H36" s="20"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="19"/>
       <c r="B37" s="23"/>
       <c r="C37" s="23"/>
@@ -1756,7 +1851,7 @@
       <c r="G37" s="23"/>
       <c r="H37" s="20"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="19"/>
       <c r="B38" s="23"/>
       <c r="C38" s="23"/>
@@ -1766,7 +1861,7 @@
       <c r="G38" s="23"/>
       <c r="H38" s="20"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="19"/>
       <c r="B39" s="23"/>
       <c r="C39" s="23"/>
@@ -1776,7 +1871,7 @@
       <c r="G39" s="23"/>
       <c r="H39" s="20"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="19"/>
       <c r="B40" s="23"/>
       <c r="C40" s="23"/>
@@ -1786,7 +1881,7 @@
       <c r="G40" s="23"/>
       <c r="H40" s="20"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="19"/>
       <c r="B41" s="23"/>
       <c r="C41" s="23"/>
@@ -1796,7 +1891,7 @@
       <c r="G41" s="23"/>
       <c r="H41" s="20"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="19"/>
       <c r="B42" s="23"/>
       <c r="C42" s="23"/>
@@ -1806,7 +1901,7 @@
       <c r="G42" s="23"/>
       <c r="H42" s="20"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="19"/>
       <c r="B43" s="23"/>
       <c r="C43" s="23"/>
@@ -1816,7 +1911,7 @@
       <c r="G43" s="23"/>
       <c r="H43" s="20"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="19"/>
       <c r="B44" s="23"/>
       <c r="C44" s="23"/>
@@ -1826,7 +1921,7 @@
       <c r="G44" s="23"/>
       <c r="H44" s="20"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="19"/>
       <c r="B45" s="23"/>
       <c r="C45" s="23"/>
@@ -1836,7 +1931,7 @@
       <c r="G45" s="23"/>
       <c r="H45" s="20"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="19"/>
       <c r="B46" s="23"/>
       <c r="C46" s="23"/>
@@ -1846,7 +1941,7 @@
       <c r="G46" s="23"/>
       <c r="H46" s="20"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="19"/>
       <c r="B47" s="23"/>
       <c r="C47" s="23"/>
@@ -1856,7 +1951,7 @@
       <c r="G47" s="23"/>
       <c r="H47" s="20"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="19"/>
       <c r="B48" s="23"/>
       <c r="C48" s="23"/>
@@ -1866,7 +1961,7 @@
       <c r="G48" s="23"/>
       <c r="H48" s="20"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="19"/>
       <c r="B49" s="23"/>
       <c r="C49" s="23"/>
@@ -1876,7 +1971,7 @@
       <c r="G49" s="23"/>
       <c r="H49" s="20"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="19"/>
       <c r="B50" s="23"/>
       <c r="C50" s="23"/>
@@ -1886,7 +1981,7 @@
       <c r="G50" s="23"/>
       <c r="H50" s="20"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="19"/>
       <c r="B51" s="23"/>
       <c r="C51" s="23"/>
@@ -1896,7 +1991,7 @@
       <c r="G51" s="23"/>
       <c r="H51" s="20"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="19"/>
       <c r="B52" s="23"/>
       <c r="C52" s="23"/>
@@ -1906,7 +2001,7 @@
       <c r="G52" s="23"/>
       <c r="H52" s="20"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="19"/>
       <c r="B53" s="23"/>
       <c r="C53" s="23"/>
@@ -1916,7 +2011,7 @@
       <c r="G53" s="23"/>
       <c r="H53" s="20"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="19"/>
       <c r="B54" s="23"/>
       <c r="C54" s="23"/>
@@ -1926,7 +2021,7 @@
       <c r="G54" s="23"/>
       <c r="H54" s="20"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="19"/>
       <c r="B55" s="23"/>
       <c r="C55" s="23"/>
@@ -1936,7 +2031,7 @@
       <c r="G55" s="23"/>
       <c r="H55" s="20"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="19"/>
       <c r="B56" s="23"/>
       <c r="C56" s="23"/>
@@ -1946,7 +2041,7 @@
       <c r="G56" s="23"/>
       <c r="H56" s="20"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="19"/>
       <c r="B57" s="23"/>
       <c r="C57" s="23"/>
@@ -1956,7 +2051,7 @@
       <c r="G57" s="23"/>
       <c r="H57" s="20"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="19"/>
       <c r="B58" s="23"/>
       <c r="C58" s="23"/>
@@ -1966,7 +2061,7 @@
       <c r="G58" s="23"/>
       <c r="H58" s="20"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="19"/>
       <c r="B59" s="23"/>
       <c r="C59" s="23"/>
@@ -1976,7 +2071,7 @@
       <c r="G59" s="23"/>
       <c r="H59" s="20"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="19"/>
       <c r="B60" s="23"/>
       <c r="C60" s="23"/>
@@ -1986,7 +2081,7 @@
       <c r="G60" s="23"/>
       <c r="H60" s="20"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="19"/>
       <c r="B61" s="23"/>
       <c r="C61" s="23"/>
@@ -1996,7 +2091,7 @@
       <c r="G61" s="23"/>
       <c r="H61" s="20"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="19"/>
       <c r="B62" s="23"/>
       <c r="C62" s="23"/>
@@ -2006,7 +2101,7 @@
       <c r="G62" s="23"/>
       <c r="H62" s="20"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="19"/>
       <c r="B63" s="23"/>
       <c r="C63" s="23"/>
@@ -2016,7 +2111,7 @@
       <c r="G63" s="23"/>
       <c r="H63" s="20"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="19"/>
       <c r="B64" s="23"/>
       <c r="C64" s="23"/>
@@ -2026,7 +2121,7 @@
       <c r="G64" s="23"/>
       <c r="H64" s="20"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="19"/>
       <c r="B65" s="23"/>
       <c r="C65" s="23"/>
@@ -2036,7 +2131,7 @@
       <c r="G65" s="23"/>
       <c r="H65" s="20"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="19"/>
       <c r="B66" s="23"/>
       <c r="C66" s="23"/>
@@ -2046,7 +2141,7 @@
       <c r="G66" s="23"/>
       <c r="H66" s="20"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="19"/>
       <c r="B67" s="23"/>
       <c r="C67" s="23"/>
@@ -2056,7 +2151,7 @@
       <c r="G67" s="23"/>
       <c r="H67" s="20"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="19"/>
       <c r="B68" s="23"/>
       <c r="C68" s="23"/>
@@ -2066,7 +2161,7 @@
       <c r="G68" s="23"/>
       <c r="H68" s="20"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="19"/>
       <c r="B69" s="23"/>
       <c r="C69" s="23"/>
@@ -2076,7 +2171,7 @@
       <c r="G69" s="23"/>
       <c r="H69" s="20"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="19"/>
       <c r="B70" s="23"/>
       <c r="C70" s="23"/>
@@ -2086,7 +2181,7 @@
       <c r="G70" s="23"/>
       <c r="H70" s="20"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="19"/>
       <c r="B71" s="23"/>
       <c r="C71" s="23"/>
@@ -2096,7 +2191,7 @@
       <c r="G71" s="23"/>
       <c r="H71" s="20"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="19"/>
       <c r="B72" s="23"/>
       <c r="C72" s="23"/>
@@ -2106,7 +2201,7 @@
       <c r="G72" s="23"/>
       <c r="H72" s="20"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="19"/>
       <c r="B73" s="23"/>
       <c r="C73" s="23"/>
@@ -2116,7 +2211,7 @@
       <c r="G73" s="23"/>
       <c r="H73" s="20"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="19"/>
       <c r="B74" s="23"/>
       <c r="C74" s="23"/>
@@ -2126,7 +2221,7 @@
       <c r="G74" s="23"/>
       <c r="H74" s="20"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="19"/>
       <c r="B75" s="23"/>
       <c r="C75" s="23"/>
@@ -2136,7 +2231,7 @@
       <c r="G75" s="23"/>
       <c r="H75" s="20"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="19"/>
       <c r="B76" s="23"/>
       <c r="C76" s="23"/>
@@ -2146,7 +2241,7 @@
       <c r="G76" s="23"/>
       <c r="H76" s="20"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="19"/>
       <c r="B77" s="23"/>
       <c r="C77" s="23"/>
@@ -2156,7 +2251,7 @@
       <c r="G77" s="23"/>
       <c r="H77" s="20"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="19"/>
       <c r="B78" s="23"/>
       <c r="C78" s="23"/>
@@ -2166,7 +2261,7 @@
       <c r="G78" s="23"/>
       <c r="H78" s="20"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="19"/>
       <c r="B79" s="23"/>
       <c r="C79" s="23"/>
@@ -2176,7 +2271,7 @@
       <c r="G79" s="23"/>
       <c r="H79" s="20"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="19"/>
       <c r="B80" s="23"/>
       <c r="C80" s="23"/>
@@ -2186,7 +2281,7 @@
       <c r="G80" s="23"/>
       <c r="H80" s="20"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="19"/>
       <c r="B81" s="23"/>
       <c r="C81" s="23"/>
@@ -2196,7 +2291,7 @@
       <c r="G81" s="23"/>
       <c r="H81" s="20"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="19"/>
       <c r="B82" s="23"/>
       <c r="C82" s="23"/>
@@ -2206,7 +2301,7 @@
       <c r="G82" s="23"/>
       <c r="H82" s="20"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="19"/>
       <c r="B83" s="23"/>
       <c r="C83" s="23"/>
@@ -2216,7 +2311,7 @@
       <c r="G83" s="23"/>
       <c r="H83" s="20"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="19"/>
       <c r="B84" s="23"/>
       <c r="C84" s="23"/>
@@ -2226,7 +2321,7 @@
       <c r="G84" s="23"/>
       <c r="H84" s="20"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="19"/>
       <c r="B85" s="23"/>
       <c r="C85" s="23"/>
@@ -2236,7 +2331,7 @@
       <c r="G85" s="23"/>
       <c r="H85" s="20"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="19"/>
       <c r="B86" s="23"/>
       <c r="C86" s="23"/>
@@ -2246,7 +2341,7 @@
       <c r="G86" s="23"/>
       <c r="H86" s="20"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="19"/>
       <c r="B87" s="23"/>
       <c r="C87" s="23"/>
@@ -2256,7 +2351,7 @@
       <c r="G87" s="23"/>
       <c r="H87" s="20"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="19"/>
       <c r="B88" s="23"/>
       <c r="C88" s="23"/>
@@ -2266,7 +2361,7 @@
       <c r="G88" s="23"/>
       <c r="H88" s="20"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="19"/>
       <c r="B89" s="23"/>
       <c r="C89" s="23"/>
@@ -2276,7 +2371,7 @@
       <c r="G89" s="23"/>
       <c r="H89" s="20"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="19"/>
       <c r="B90" s="23"/>
       <c r="C90" s="23"/>
@@ -2286,7 +2381,7 @@
       <c r="G90" s="23"/>
       <c r="H90" s="20"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="19"/>
       <c r="B91" s="23"/>
       <c r="C91" s="23"/>
@@ -2296,7 +2391,7 @@
       <c r="G91" s="23"/>
       <c r="H91" s="20"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="19"/>
       <c r="B92" s="23"/>
       <c r="C92" s="23"/>
@@ -2306,7 +2401,7 @@
       <c r="G92" s="23"/>
       <c r="H92" s="20"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="19"/>
       <c r="B93" s="23"/>
       <c r="C93" s="23"/>
@@ -2316,7 +2411,7 @@
       <c r="G93" s="23"/>
       <c r="H93" s="20"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="19"/>
       <c r="B94" s="23"/>
       <c r="C94" s="23"/>
@@ -2326,7 +2421,7 @@
       <c r="G94" s="23"/>
       <c r="H94" s="20"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="19"/>
       <c r="B95" s="23"/>
       <c r="C95" s="23"/>
@@ -2336,7 +2431,7 @@
       <c r="G95" s="23"/>
       <c r="H95" s="20"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="19"/>
       <c r="B96" s="23"/>
       <c r="C96" s="23"/>
@@ -2346,7 +2441,7 @@
       <c r="G96" s="23"/>
       <c r="H96" s="20"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="19"/>
       <c r="B97" s="23"/>
       <c r="C97" s="23"/>
@@ -2356,7 +2451,7 @@
       <c r="G97" s="23"/>
       <c r="H97" s="20"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="19"/>
       <c r="B98" s="23"/>
       <c r="C98" s="23"/>
@@ -2366,7 +2461,7 @@
       <c r="G98" s="23"/>
       <c r="H98" s="20"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="19"/>
       <c r="B99" s="23"/>
       <c r="C99" s="23"/>
@@ -2376,7 +2471,7 @@
       <c r="G99" s="23"/>
       <c r="H99" s="20"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="19"/>
       <c r="B100" s="23"/>
       <c r="C100" s="23"/>
@@ -2386,7 +2481,7 @@
       <c r="G100" s="23"/>
       <c r="H100" s="20"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="19"/>
       <c r="B101" s="23"/>
       <c r="C101" s="23"/>
@@ -2396,7 +2491,7 @@
       <c r="G101" s="23"/>
       <c r="H101" s="20"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="19"/>
       <c r="B102" s="23"/>
       <c r="C102" s="23"/>
@@ -2406,7 +2501,7 @@
       <c r="G102" s="23"/>
       <c r="H102" s="20"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="19"/>
       <c r="B103" s="23"/>
       <c r="C103" s="23"/>
@@ -2416,7 +2511,7 @@
       <c r="G103" s="23"/>
       <c r="H103" s="20"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="19"/>
       <c r="B104" s="23"/>
       <c r="C104" s="23"/>
@@ -2426,7 +2521,7 @@
       <c r="G104" s="23"/>
       <c r="H104" s="20"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="19"/>
       <c r="B105" s="23"/>
       <c r="C105" s="23"/>
@@ -2436,7 +2531,7 @@
       <c r="G105" s="23"/>
       <c r="H105" s="20"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="19"/>
       <c r="B106" s="23"/>
       <c r="C106" s="23"/>
@@ -2446,7 +2541,7 @@
       <c r="G106" s="23"/>
       <c r="H106" s="20"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="19"/>
       <c r="B107" s="23"/>
       <c r="C107" s="23"/>
@@ -2456,7 +2551,7 @@
       <c r="G107" s="23"/>
       <c r="H107" s="20"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="19"/>
       <c r="B108" s="23"/>
       <c r="C108" s="23"/>
@@ -2466,7 +2561,7 @@
       <c r="G108" s="23"/>
       <c r="H108" s="20"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="19"/>
       <c r="B109" s="23"/>
       <c r="C109" s="23"/>
@@ -2476,7 +2571,7 @@
       <c r="G109" s="23"/>
       <c r="H109" s="20"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="19"/>
       <c r="B110" s="23"/>
       <c r="C110" s="23"/>
@@ -2486,7 +2581,7 @@
       <c r="G110" s="23"/>
       <c r="H110" s="20"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="19"/>
       <c r="B111" s="23"/>
       <c r="C111" s="23"/>
@@ -2496,7 +2591,7 @@
       <c r="G111" s="23"/>
       <c r="H111" s="20"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="19"/>
       <c r="B112" s="23"/>
       <c r="C112" s="23"/>
@@ -2506,7 +2601,7 @@
       <c r="G112" s="23"/>
       <c r="H112" s="20"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="19"/>
       <c r="B113" s="23"/>
       <c r="C113" s="23"/>
@@ -2516,7 +2611,7 @@
       <c r="G113" s="23"/>
       <c r="H113" s="20"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="19"/>
       <c r="B114" s="23"/>
       <c r="C114" s="23"/>
@@ -2526,7 +2621,7 @@
       <c r="G114" s="23"/>
       <c r="H114" s="20"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="19"/>
       <c r="B115" s="23"/>
       <c r="C115" s="23"/>
@@ -2536,7 +2631,7 @@
       <c r="G115" s="23"/>
       <c r="H115" s="20"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="19"/>
       <c r="B116" s="23"/>
       <c r="C116" s="23"/>
@@ -2546,7 +2641,7 @@
       <c r="G116" s="23"/>
       <c r="H116" s="20"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="19"/>
       <c r="B117" s="23"/>
       <c r="C117" s="23"/>
@@ -2556,7 +2651,7 @@
       <c r="G117" s="23"/>
       <c r="H117" s="20"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="19"/>
       <c r="B118" s="23"/>
       <c r="C118" s="23"/>
@@ -2566,7 +2661,7 @@
       <c r="G118" s="23"/>
       <c r="H118" s="20"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="19"/>
       <c r="B119" s="23"/>
       <c r="C119" s="23"/>
@@ -2576,7 +2671,7 @@
       <c r="G119" s="23"/>
       <c r="H119" s="20"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="19"/>
       <c r="B120" s="23"/>
       <c r="C120" s="23"/>
@@ -2586,7 +2681,7 @@
       <c r="G120" s="23"/>
       <c r="H120" s="20"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="19"/>
       <c r="B121" s="23"/>
       <c r="C121" s="23"/>
@@ -2596,7 +2691,7 @@
       <c r="G121" s="23"/>
       <c r="H121" s="20"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="19"/>
       <c r="B122" s="23"/>
       <c r="C122" s="23"/>
@@ -2606,7 +2701,7 @@
       <c r="G122" s="23"/>
       <c r="H122" s="20"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="19"/>
       <c r="B123" s="23"/>
       <c r="C123" s="23"/>
@@ -2616,7 +2711,7 @@
       <c r="G123" s="23"/>
       <c r="H123" s="20"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="19"/>
       <c r="B124" s="23"/>
       <c r="C124" s="23"/>
@@ -2626,7 +2721,7 @@
       <c r="G124" s="23"/>
       <c r="H124" s="20"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="19"/>
       <c r="B125" s="23"/>
       <c r="C125" s="23"/>
@@ -2636,7 +2731,7 @@
       <c r="G125" s="23"/>
       <c r="H125" s="20"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="19"/>
       <c r="B126" s="23"/>
       <c r="C126" s="23"/>
@@ -2646,7 +2741,7 @@
       <c r="G126" s="23"/>
       <c r="H126" s="20"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="19"/>
       <c r="B127" s="23"/>
       <c r="C127" s="23"/>
@@ -2656,7 +2751,7 @@
       <c r="G127" s="23"/>
       <c r="H127" s="20"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="19"/>
       <c r="B128" s="23"/>
       <c r="C128" s="23"/>
@@ -2666,7 +2761,7 @@
       <c r="G128" s="23"/>
       <c r="H128" s="20"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="19"/>
       <c r="B129" s="23"/>
       <c r="C129" s="23"/>
@@ -2676,7 +2771,7 @@
       <c r="G129" s="23"/>
       <c r="H129" s="20"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="19"/>
       <c r="B130" s="23"/>
       <c r="C130" s="23"/>
@@ -2686,7 +2781,7 @@
       <c r="G130" s="23"/>
       <c r="H130" s="20"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="19"/>
       <c r="B131" s="23"/>
       <c r="C131" s="23"/>
@@ -2696,7 +2791,7 @@
       <c r="G131" s="23"/>
       <c r="H131" s="20"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="19"/>
       <c r="B132" s="23"/>
       <c r="C132" s="23"/>
@@ -2706,7 +2801,7 @@
       <c r="G132" s="23"/>
       <c r="H132" s="20"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="19"/>
       <c r="B133" s="23"/>
       <c r="C133" s="23"/>
@@ -2716,7 +2811,7 @@
       <c r="G133" s="23"/>
       <c r="H133" s="20"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="19"/>
       <c r="B134" s="23"/>
       <c r="C134" s="23"/>
@@ -2726,7 +2821,7 @@
       <c r="G134" s="23"/>
       <c r="H134" s="20"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="19"/>
       <c r="B135" s="23"/>
       <c r="C135" s="23"/>
@@ -2736,7 +2831,7 @@
       <c r="G135" s="23"/>
       <c r="H135" s="20"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="19"/>
       <c r="B136" s="23"/>
       <c r="C136" s="23"/>
@@ -2746,7 +2841,7 @@
       <c r="G136" s="23"/>
       <c r="H136" s="20"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="19"/>
       <c r="B137" s="23"/>
       <c r="C137" s="23"/>
@@ -2756,7 +2851,7 @@
       <c r="G137" s="23"/>
       <c r="H137" s="20"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="19"/>
       <c r="B138" s="23"/>
       <c r="C138" s="23"/>
@@ -2766,7 +2861,7 @@
       <c r="G138" s="23"/>
       <c r="H138" s="20"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="19"/>
       <c r="B139" s="23"/>
       <c r="C139" s="23"/>
@@ -2776,7 +2871,7 @@
       <c r="G139" s="23"/>
       <c r="H139" s="20"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="19"/>
       <c r="B140" s="23"/>
       <c r="C140" s="23"/>
@@ -2786,7 +2881,7 @@
       <c r="G140" s="23"/>
       <c r="H140" s="20"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B141" s="22"/>
       <c r="C141" s="22"/>
       <c r="D141" s="22"/>

--- a/Atravesar Project plan 03-28-2016.xlsx
+++ b/Atravesar Project plan 03-28-2016.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
     <t>Start Date</t>
   </si>
@@ -122,6 +122,24 @@
   </si>
   <si>
     <t>On ‘confirm booking’ button click the app crashes CTR+SHIFT+T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custom client location marker like a point and don't show "You here". We not going to track them. </t>
+  </si>
+  <si>
+    <t>Add Nearly into listview in GetAddressActivity just like "Home" and "Frequent"</t>
+  </si>
+  <si>
+    <t>move search textbox into the tool bar in GetAddressActivity</t>
+  </si>
+  <si>
+    <t>Add login option in menu bar whenever the customer not login yet</t>
+  </si>
+  <si>
+    <t>check functions SaveBooking! It's not work correctly</t>
+  </si>
+  <si>
+    <t>Active</t>
   </si>
 </sst>
 </file>
@@ -1002,13 +1020,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1324,7 +1342,9 @@
       <c r="B18" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="26"/>
+      <c r="C18" s="26" t="s">
+        <v>30</v>
+      </c>
       <c r="D18" s="15">
         <v>0.2</v>
       </c>
@@ -1339,12 +1359,12 @@
     <row r="19" spans="1:11" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
       <c r="B19" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="15">
-        <v>0.5</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="15"/>
       <c r="E19" s="12"/>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
@@ -1352,6 +1372,87 @@
       <c r="I19" s="12"/>
       <c r="J19" s="11"/>
       <c r="K19" s="13"/>
+    </row>
+    <row r="20" spans="1:11" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="10"/>
+      <c r="B20" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="13"/>
+    </row>
+    <row r="21" spans="1:11" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="10"/>
+      <c r="B21" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="13"/>
+    </row>
+    <row r="22" spans="1:11" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="10"/>
+      <c r="B22" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="13"/>
+    </row>
+    <row r="23" spans="1:11" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="10"/>
+      <c r="B23" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="13"/>
+    </row>
+    <row r="24" spans="1:11" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A24" s="10"/>
+      <c r="B24" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="26"/>
+      <c r="D24" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="B4:J4"/>

--- a/Atravesar Project plan 03-28-2016.xlsx
+++ b/Atravesar Project plan 03-28-2016.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>Start Date</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>check functions SaveBooking! It's not work correctly</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Add function for Home place</t>
   </si>
 </sst>
 </file>
@@ -1022,13 +1028,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1344,7 +1350,9 @@
       <c r="B18" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="26"/>
+      <c r="C18" s="26" t="s">
+        <v>37</v>
+      </c>
       <c r="D18" s="15">
         <v>0.2</v>
       </c>
@@ -1361,7 +1369,9 @@
       <c r="B19" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="26"/>
+      <c r="C19" s="26" t="s">
+        <v>37</v>
+      </c>
       <c r="D19" s="15"/>
       <c r="E19" s="12"/>
       <c r="F19" s="16"/>
@@ -1391,7 +1401,9 @@
       <c r="B21" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="26"/>
+      <c r="C21" s="26" t="s">
+        <v>37</v>
+      </c>
       <c r="D21" s="15"/>
       <c r="E21" s="12"/>
       <c r="F21" s="16"/>
@@ -1431,15 +1443,13 @@
       <c r="J23" s="11"/>
       <c r="K23" s="13"/>
     </row>
-    <row r="24" spans="1:11" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
       <c r="B24" s="24" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C24" s="26"/>
-      <c r="D24" s="15">
-        <v>0.5</v>
-      </c>
+      <c r="D24" s="15"/>
       <c r="E24" s="12"/>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
@@ -1447,6 +1457,23 @@
       <c r="I24" s="12"/>
       <c r="J24" s="11"/>
       <c r="K24" s="13"/>
+    </row>
+    <row r="25" spans="1:11" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A25" s="10"/>
+      <c r="B25" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="26"/>
+      <c r="D25" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="B4:J4"/>

--- a/Atravesar Project plan 03-28-2016.xlsx
+++ b/Atravesar Project plan 03-28-2016.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Atravesar\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9510" tabRatio="500"/>
   </bookViews>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>Start Date</t>
   </si>
@@ -122,6 +127,9 @@
   </si>
   <si>
     <t>On ‘confirm booking’ button click the app crashes CTR+SHIFT+T</t>
+  </si>
+  <si>
+    <t>Active</t>
   </si>
 </sst>
 </file>
@@ -1008,7 +1016,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1324,7 +1332,9 @@
       <c r="B18" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="26"/>
+      <c r="C18" s="26" t="s">
+        <v>30</v>
+      </c>
       <c r="D18" s="15">
         <v>0.2</v>
       </c>
@@ -1341,7 +1351,9 @@
       <c r="B19" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="26"/>
+      <c r="C19" s="26" t="s">
+        <v>32</v>
+      </c>
       <c r="D19" s="15">
         <v>0.5</v>
       </c>

--- a/Atravesar Project plan 03-28-2016.xlsx
+++ b/Atravesar Project plan 03-28-2016.xlsx
@@ -139,7 +139,7 @@
     <t>check functions SaveBooking! It's not work correctly</t>
   </si>
   <si>
-    <t>Active</t>
+    <t>completed</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1026,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1379,7 +1379,7 @@
         <v>34</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="12"/>
